--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2115" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655F9A2E-A327-4BC2-964E-65DE366E0217}"/>
+  <xr:revisionPtr revIDLastSave="2129" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B457B0AA-9259-4EE1-98F0-D66EDBE42CBC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
@@ -26,28 +26,17 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="534">
   <si>
     <t>FECHA</t>
   </si>
@@ -1643,6 +1632,12 @@
   </si>
   <si>
     <t xml:space="preserve">revisión puerta vehicular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambio de fuente para tarjeta controladora de brazo electromecanico beninca 24v 10a ajsute y reprogemacion de parametros de apertura y cierre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuente 24v 10a </t>
   </si>
 </sst>
 </file>
@@ -19605,8 +19600,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="I12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20090,7 +20085,7 @@
         <v>490</v>
       </c>
       <c r="G9" s="17">
-        <v>780000</v>
+        <v>740265</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>491</v>
@@ -20107,18 +20102,18 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
-        <v>618000</v>
+        <v>578265</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="1"/>
-        <v>309000</v>
+        <v>289132.5</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>457200</v>
+        <v>437332.5</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>50</v>
@@ -20657,32 +20652,56 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="14"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G21" s="17">
+        <v>807789</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="I21" s="17">
+        <v>170000</v>
+      </c>
+      <c r="J21" s="17">
+        <v>161500</v>
+      </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>637789</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="1"/>
+        <v>318894.5</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14"/>
+        <v>480394.5</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2129" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B457B0AA-9259-4EE1-98F0-D66EDBE42CBC}"/>
+  <xr:revisionPtr revIDLastSave="2192" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401C78CB-B5F2-4518-9E78-52E6DF37636E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="554">
   <si>
     <t>FECHA</t>
   </si>
@@ -1638,6 +1638,66 @@
   </si>
   <si>
     <t xml:space="preserve">fuente 24v 10a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk envio desde nequi al nequi de jg </t>
+  </si>
+  <si>
+    <t>jk uso el 50% que le correspondia para cruzar con el pago del servicio de diag 60a # 22a - 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">este servicio se cruza con el exedente que quedo debiendo jk en la relacion de los servicios que hubo confusion de lla diag 60a # 22a - 66 y dentix de suba donde se desconto mas de loque se le debia descontar a jg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 101 # 13 - 41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIFICIO PORTAL DEL RINCÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">desmonte ajuste y siliconado de zócalo inferior con Omar </t>
+  </si>
+  <si>
+    <t>jk hizo transferencia desde nequi al nequi jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 46 # 18A - 36 - CANTON MILITAR CALDAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernando Rodríguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCUELA DE INGENIEROS </t>
+  </si>
+  <si>
+    <t>TRANSV 53A # 22 - 29 SUR</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>visita para cotizar mantenimiento puerta entrada vehicular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 53 # 5A - 65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisión puerta entrada vehicular levadiza </t>
+  </si>
+  <si>
+    <t>CALLE 112 # 5A - 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revision de motor de cremallera bft entrada vehicular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">instalación de motor corredizo de cremallera bft entrada vehicular con JK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk hace transferencia desde la cuenta bancolombia al nequi de jg y deja la visita para la cotizacion como pago de la instalación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el valor que le corresponde a ABRECAR se deja como pago de la instalación del motor a jg </t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1861,7 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="531">
+  <dxfs count="535">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1827,16 +1887,7 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1871,6 +1922,13 @@
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2519,16 +2577,127 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -2574,19 +2743,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2614,136 +2794,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4227,7 +4299,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="524" dataDxfId="523">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="528" dataDxfId="527">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4250,38 +4322,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="522" totalsRowDxfId="521"/>
-    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="520"/>
-    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="509"/>
-    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="502"/>
-    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="501" totalsRowDxfId="500">
+    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="526" totalsRowDxfId="525"/>
+    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="524"/>
+    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="513"/>
+    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="506"/>
+    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="505" totalsRowDxfId="504">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="497" totalsRowDxfId="496">
+    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="501" totalsRowDxfId="500">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="495" totalsRowDxfId="494">
+    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="499" totalsRowDxfId="498">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="491" totalsRowDxfId="490"/>
-    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="489"/>
+    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="493"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4304,38 +4376,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="107"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="106"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="103"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="91"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4358,38 +4430,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4412,38 +4484,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="476" dataDxfId="475">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="480" dataDxfId="479">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4466,38 +4538,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="464" totalsRowDxfId="463" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="452"/>
-    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="451" totalsRowDxfId="450">
+    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="468" totalsRowDxfId="467" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="456"/>
+    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="455" totalsRowDxfId="454">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="449" totalsRowDxfId="448"/>
-    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="447" totalsRowDxfId="446">
+    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="453" totalsRowDxfId="452"/>
+    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="451" totalsRowDxfId="450">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="445" totalsRowDxfId="444">
+    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="449" totalsRowDxfId="448">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="443" totalsRowDxfId="442"/>
-    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="441" totalsRowDxfId="440"/>
-    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="439" totalsRowDxfId="438"/>
+    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="447" totalsRowDxfId="446"/>
+    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="445" totalsRowDxfId="444"/>
+    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="443" totalsRowDxfId="442"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="431" dataDxfId="430">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="435" dataDxfId="434">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4520,38 +4592,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="427"/>
-    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="426" totalsRowDxfId="425"/>
-    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="424"/>
-    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="421" totalsRowDxfId="420" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="419" totalsRowDxfId="418"/>
-    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="417" totalsRowDxfId="416"/>
-    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="415" totalsRowDxfId="414" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="413"/>
-    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="412" totalsRowDxfId="411"/>
-    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="410"/>
-    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="409" totalsRowDxfId="408">
+    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="433" totalsRowDxfId="432"/>
+    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="431"/>
+    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="428"/>
+    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="427" totalsRowDxfId="426"/>
+    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="425" totalsRowDxfId="424" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="423" totalsRowDxfId="422"/>
+    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="421" totalsRowDxfId="420"/>
+    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="419" totalsRowDxfId="418" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="417"/>
+    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="414"/>
+    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="413" totalsRowDxfId="412">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="405" totalsRowDxfId="404">
+    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="411" totalsRowDxfId="410"/>
+    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="409" totalsRowDxfId="408">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="403" totalsRowDxfId="402">
+    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="407" totalsRowDxfId="406">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="401" totalsRowDxfId="400"/>
-    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
+    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="405" totalsRowDxfId="404"/>
+    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="403" totalsRowDxfId="402"/>
+    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="383" dataDxfId="382">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="387" dataDxfId="386">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4574,38 +4646,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="371" totalsRowDxfId="370" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="367"/>
-    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="360"/>
-    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="359" totalsRowDxfId="358">
+    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="375" totalsRowDxfId="374" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="371"/>
+    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="370" totalsRowDxfId="369"/>
+    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="368" totalsRowDxfId="367"/>
+    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="364"/>
+    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="363" totalsRowDxfId="362">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="355" totalsRowDxfId="354">
+    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="359" totalsRowDxfId="358">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="353" totalsRowDxfId="352">
+    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="357" totalsRowDxfId="356">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="309" dataDxfId="308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="313" dataDxfId="312">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4628,38 +4700,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="307" totalsRowDxfId="306"/>
-    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="305" totalsRowDxfId="304"/>
-    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="303" totalsRowDxfId="302"/>
-    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="301"/>
-    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="300" totalsRowDxfId="299"/>
-    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="298" totalsRowDxfId="297" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="296" totalsRowDxfId="295"/>
-    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="294"/>
-    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="287"/>
-    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="286" totalsRowDxfId="285">
+    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="311" totalsRowDxfId="310"/>
+    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="309" totalsRowDxfId="308"/>
+    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="307" totalsRowDxfId="306"/>
+    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="305"/>
+    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="302" totalsRowDxfId="301" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="298"/>
+    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="293" totalsRowDxfId="292"/>
+    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="291"/>
+    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="290" totalsRowDxfId="289">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="282" totalsRowDxfId="281">
+    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="286" totalsRowDxfId="285">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="280" totalsRowDxfId="279">
+    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="284" totalsRowDxfId="283">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="276" totalsRowDxfId="275"/>
-    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="266" dataDxfId="265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="270" dataDxfId="269">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4682,38 +4754,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="262" totalsRowDxfId="261"/>
-    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="258"/>
-    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="255" totalsRowDxfId="254" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="249" totalsRowDxfId="248"/>
-    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="247" totalsRowDxfId="246"/>
-    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="245" totalsRowDxfId="244"/>
-    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="243"/>
-    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="242" totalsRowDxfId="241">
+    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="262"/>
+    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="259" totalsRowDxfId="258" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="253" totalsRowDxfId="252"/>
+    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="249" totalsRowDxfId="248"/>
+    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="247"/>
+    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="246" totalsRowDxfId="245">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="238" totalsRowDxfId="237">
+    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="242" totalsRowDxfId="241">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="236" totalsRowDxfId="235">
+    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="240" totalsRowDxfId="239">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4736,38 +4808,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="219" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="218" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="217"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="216" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="215" totalsRowDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="214" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="213" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="212" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="211" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="210" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="209"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="208" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="218"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="203"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="202" totalsRowDxfId="201">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="207" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="206" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="198" totalsRowDxfId="197">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="205" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="196" totalsRowDxfId="195">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="204" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="203" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="202" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="182" dataDxfId="181">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4790,38 +4862,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="191"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="188"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="187" totalsRowDxfId="186" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="183"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="182"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="181"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="180" totalsRowDxfId="179"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="178"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="177" totalsRowDxfId="176">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="180" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="179" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="177" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="176" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="175" totalsRowDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="174" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="172"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="171"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="170" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="169"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="168" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="173" totalsRowDxfId="172">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="167" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="166" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="171" totalsRowDxfId="170">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="165" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="165"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="164" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4844,31 +4916,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="146"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="143"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="140"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="128"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6896,22 +6968,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="530" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8205,22 +8277,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9514,22 +9586,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10823,22 +10895,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12465,42 +12537,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="488" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="482" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13132,7 +13204,9 @@
       <c r="I12" s="27"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13243,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
@@ -14280,22 +14354,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="437" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15941,42 +16015,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="395" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="389" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17613,122 +17687,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="345" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="339" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="333" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="327" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="321" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="315" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17758,8 +17832,8 @@
   </sheetPr>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18555,7 +18629,9 @@
       <c r="E15" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>532000</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -18565,24 +18641,28 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>532000</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133000</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>266000</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R15" s="2">
+        <v>45835</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -19550,27 +19630,27 @@
       <c r="H42" s="15"/>
       <c r="S42" s="15">
         <f>SUBTOTAL(103,Tabla14567[[NOTAS ]])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="272" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19600,8 +19680,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20116,10 +20196,14 @@
         <v>437332.5</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R9" s="2">
+        <v>45868</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -20511,9 +20595,15 @@
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="14"/>
+      <c r="Q17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="2">
+        <v>45868</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -20563,7 +20653,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45866</v>
       </c>
@@ -20604,9 +20694,15 @@
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="14"/>
+      <c r="Q19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="2">
+        <v>45868</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
@@ -20700,37 +20796,57 @@
         <v>480394.5</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R21" s="2">
+        <v>45868</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>539</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="14"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
@@ -21266,27 +21382,27 @@
       <c r="I41" s="18"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla145678[[NOTAS ]])</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="228" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21316,17 +21432,17 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="39.54296875" customWidth="1"/>
@@ -21340,7 +21456,7 @@
     <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
     <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
     <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" customWidth="1"/>
+    <col min="19" max="19" width="65.1796875" style="15" customWidth="1"/>
     <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
@@ -21349,16 +21465,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -21400,7 +21516,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -21413,34 +21529,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="7">
+        <v>120000</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M2" s="6">
         <f t="shared" ref="M2:M40" si="0">(F2+G2-I2-K2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="6" t="str">
+        <v>120000</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6">
         <f t="shared" ref="O2:O40" si="1">IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</f>
-        <v/>
+        <v>60000</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P40" si="2">(M2/2+J2)</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="14"/>
       <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
@@ -21451,140 +21584,213 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F3" s="7">
+        <v>80000</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="14"/>
       <c r="AC3" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="7">
+        <v>80000</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="14"/>
       <c r="AC4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" s="7">
+        <v>80000</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
+        <v>40000</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45875</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>553</v>
+      </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" s="4">
+        <v>800000</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>800000</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>400000</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
+        <v>400000</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2">
+        <v>45875</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>552</v>
+      </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -21606,17 +21812,17 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="14"/>
       <c r="AC7" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -21638,14 +21844,14 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -21667,14 +21873,14 @@
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -21696,14 +21902,14 @@
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -21725,14 +21931,14 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -21754,14 +21960,14 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -21783,14 +21989,14 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -21812,14 +22018,14 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -21841,14 +22047,14 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -21870,14 +22076,14 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -21899,14 +22105,14 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -21928,14 +22134,14 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -21957,14 +22163,14 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -21986,14 +22192,14 @@
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -22015,14 +22221,14 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -22044,14 +22250,14 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -22073,14 +22279,14 @@
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="1"/>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -22102,14 +22308,14 @@
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="1"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -22131,14 +22337,14 @@
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="1"/>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -22160,14 +22366,14 @@
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -22189,14 +22395,14 @@
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="1"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -22218,14 +22424,14 @@
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -22247,14 +22453,14 @@
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="14"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -22276,14 +22482,14 @@
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="1"/>
+      <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -22305,14 +22511,14 @@
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -22334,14 +22540,14 @@
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="G33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -22363,14 +22569,14 @@
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -22392,14 +22598,14 @@
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="1"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -22421,14 +22627,14 @@
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="1"/>
+      <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -22450,14 +22656,14 @@
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="1"/>
+      <c r="S36" s="14"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -22479,14 +22685,14 @@
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="1"/>
+      <c r="S37" s="14"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -22508,14 +22714,14 @@
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="1"/>
+      <c r="S38" s="14"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -22537,14 +22743,14 @@
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="1"/>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -22566,36 +22772,36 @@
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="1"/>
+      <c r="S40" s="14"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="S41">
+      <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla1456789[[NOTAS ]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="201" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23889,22 +24095,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="164" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2192" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401C78CB-B5F2-4518-9E78-52E6DF37636E}"/>
+  <xr:revisionPtr revIDLastSave="2238" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB4DE96-7BDD-4D03-A403-25F2A905BEF5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="575">
   <si>
     <t>FECHA</t>
   </si>
@@ -395,9 +395,6 @@
     <t xml:space="preserve">TORRE -4 - 1101 </t>
   </si>
   <si>
-    <t xml:space="preserve">ajuste de verradura electronica multylock para puerta blindada </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -803,9 +800,6 @@
     <t xml:space="preserve">ajuste mantenimiento y cambio de base inferior para bisagra de piso speeddy m 25 con Omar </t>
   </si>
   <si>
-    <t>ajuste de panel lateral en drywall masilladony pintura sjuste con Omar</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRA 9A # 113 - 50 </t>
   </si>
   <si>
@@ -860,9 +854,6 @@
     <t>FORMA DE PAGO</t>
   </si>
   <si>
-    <t>desmonte de puerta en vidrio cambio de base en bronce y pi ote de piso con Omar</t>
-  </si>
-  <si>
     <t xml:space="preserve">base en bronce y pivote de piso </t>
   </si>
   <si>
@@ -1698,6 +1689,78 @@
   </si>
   <si>
     <t xml:space="preserve">el valor que le corresponde a ABRECAR se deja como pago de la instalación del motor a jg </t>
+  </si>
+  <si>
+    <t>UNIDAD DE SERVICIOS COMPARTIDOS DE COOMEVA - Juan Sebastian Nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuste de fotocelda limpiza cambio de tapa de soporte fotocelda y cambio de tapa para cable canaleta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parqueadero tollas lubricantes y otros </t>
+  </si>
+  <si>
+    <t>jk hizo transferencia desde nequi a nequi de jg</t>
+  </si>
+  <si>
+    <t>CRA 44B # 22 -1O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIFICIO ESTIBALIZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">revision de control remoto para brazo electromecanico accesmastic 250 </t>
+  </si>
+  <si>
+    <t>CRA 13 # 24A - 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSIDAD INNCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDE UNIVERSITARIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mantenimiento correctivo de 2 puertas de vidrio y 10 mantenimientos preventivos de puertas de vidrio con Omar </t>
+  </si>
+  <si>
+    <t>CRA 45 # 55 -10</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION - 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revision de brazo electromecanico bft a40 </t>
+  </si>
+  <si>
+    <t>Daniel Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apertura de camioneta </t>
+  </si>
+  <si>
+    <t>CALLE 116A # 70C - 63</t>
+  </si>
+  <si>
+    <t>ajuste de panel lateral en drywall masillado y pintura  con Omar</t>
+  </si>
+  <si>
+    <t>desmonte de puerta en vidrio cambio de base en bronce y pivote de piso con Omar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">este servicio hizo el pago jk desde daviplata al daviplata de jg pero hay que revisar porque estaba pagando exedente de otro servicio y la tabla de relacion no concuerda con los datos del servicio hay que  revisar puede que este mal la cuenta en contra de abrecar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuste de cerradura electronica multylock para puerta blindada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estos servicios se toman para dejar pago el servicio realizado con omar en el centro comercial unicnetro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL CLIENTE NO QUISO PAGAR EL DOMICILIO SEGÚN EL PORQUE NO SE HIZO UNA REVISION COMPLETA DEL SISTEMA </t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1924,7 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="535">
+  <dxfs count="537">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1887,7 +1950,16 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -1922,13 +1994,6 @@
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2577,27 +2642,48 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -2607,101 +2693,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2712,61 +2710,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2800,22 +2750,142 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4299,7 +4369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="528" dataDxfId="527">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4322,38 +4392,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="526" totalsRowDxfId="525"/>
-    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="524"/>
-    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="513"/>
-    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="506"/>
-    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="505" totalsRowDxfId="504">
+    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="526"/>
+    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="515"/>
+    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="508"/>
+    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="507" totalsRowDxfId="506">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="501" totalsRowDxfId="500">
+    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="503" totalsRowDxfId="502">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="499" totalsRowDxfId="498">
+    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="501" totalsRowDxfId="500">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="493"/>
+    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="495"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4376,38 +4446,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="106"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="90"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4430,38 +4500,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4484,38 +4554,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="480" dataDxfId="479">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="482" dataDxfId="481">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4538,38 +4608,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="468" totalsRowDxfId="467" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="456"/>
-    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="455" totalsRowDxfId="454">
+    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="470" totalsRowDxfId="469" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="458"/>
+    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="457" totalsRowDxfId="456">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="453" totalsRowDxfId="452"/>
-    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="451" totalsRowDxfId="450">
+    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="455" totalsRowDxfId="454"/>
+    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="453" totalsRowDxfId="452">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="449" totalsRowDxfId="448">
+    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="451" totalsRowDxfId="450">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="447" totalsRowDxfId="446"/>
-    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="445" totalsRowDxfId="444"/>
-    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="443" totalsRowDxfId="442"/>
+    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="449" totalsRowDxfId="448"/>
+    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="447" totalsRowDxfId="446"/>
+    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="445" totalsRowDxfId="444"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="435" dataDxfId="434">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="437" dataDxfId="436">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4592,38 +4662,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="433" totalsRowDxfId="432"/>
-    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="431"/>
-    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="428"/>
-    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="427" totalsRowDxfId="426"/>
-    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="425" totalsRowDxfId="424" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="419" totalsRowDxfId="418" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="417"/>
-    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="416" totalsRowDxfId="415"/>
-    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="414"/>
-    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="413" totalsRowDxfId="412">
+    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="435" totalsRowDxfId="434"/>
+    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="433"/>
+    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="430"/>
+    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="429" totalsRowDxfId="428"/>
+    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="427" totalsRowDxfId="426" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="425" totalsRowDxfId="424"/>
+    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="423" totalsRowDxfId="422"/>
+    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="421" totalsRowDxfId="420" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="419"/>
+    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="416"/>
+    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="415" totalsRowDxfId="414">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="409" totalsRowDxfId="408">
+    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="413" totalsRowDxfId="412"/>
+    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="411" totalsRowDxfId="410">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="407" totalsRowDxfId="406">
+    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="409" totalsRowDxfId="408">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="403" totalsRowDxfId="402"/>
-    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
+    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="407" totalsRowDxfId="406"/>
+    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="405" totalsRowDxfId="404"/>
+    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="387" dataDxfId="386">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="389" dataDxfId="388">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4646,38 +4716,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="375" totalsRowDxfId="374" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="371"/>
-    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="370" totalsRowDxfId="369"/>
-    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="368" totalsRowDxfId="367"/>
-    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="364"/>
-    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="363" totalsRowDxfId="362">
+    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="377" totalsRowDxfId="376" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="373"/>
+    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="372" totalsRowDxfId="371"/>
+    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="370" totalsRowDxfId="369"/>
+    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="368" totalsRowDxfId="367"/>
+    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="366"/>
+    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="365" totalsRowDxfId="364">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="359" totalsRowDxfId="358">
+    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="361" totalsRowDxfId="360">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="357" totalsRowDxfId="356">
+    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="359" totalsRowDxfId="358">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="313" dataDxfId="312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="315" dataDxfId="314">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4700,38 +4770,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="311" totalsRowDxfId="310"/>
-    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="309" totalsRowDxfId="308"/>
-    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="307" totalsRowDxfId="306"/>
-    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="305"/>
-    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="304" totalsRowDxfId="303"/>
-    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="302" totalsRowDxfId="301" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="300" totalsRowDxfId="299"/>
-    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="298"/>
-    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="291"/>
-    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="290" totalsRowDxfId="289">
+    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="313" totalsRowDxfId="312"/>
+    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="311" totalsRowDxfId="310"/>
+    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="309" totalsRowDxfId="308"/>
+    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="307"/>
+    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="304" totalsRowDxfId="303" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="300"/>
+    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="299" totalsRowDxfId="298"/>
+    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="293"/>
+    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="292" totalsRowDxfId="291">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="286" totalsRowDxfId="285">
+    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="288" totalsRowDxfId="287">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="286" totalsRowDxfId="285">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="270" dataDxfId="269">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="272" dataDxfId="271">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4754,38 +4824,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="262"/>
-    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="261" totalsRowDxfId="260"/>
-    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="259" totalsRowDxfId="258" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="249" totalsRowDxfId="248"/>
-    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="247"/>
-    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="246" totalsRowDxfId="245">
+    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="264"/>
+    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="261" totalsRowDxfId="260" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="253" totalsRowDxfId="252"/>
+    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="249"/>
+    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="248" totalsRowDxfId="247">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="242" totalsRowDxfId="241">
+    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="244" totalsRowDxfId="243">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="240" totalsRowDxfId="239">
+    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="242" totalsRowDxfId="241">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="228" dataDxfId="227">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4808,38 +4878,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="218"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="203"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="202" totalsRowDxfId="201">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="226" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="225" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="224" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="222" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="221" totalsRowDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="220" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="219" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="218" totalsRowDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="217" totalsRowDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="216" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="215"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="214" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="200" totalsRowDxfId="199"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="198" totalsRowDxfId="197">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="213" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="212" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="196" totalsRowDxfId="195">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="211" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="210" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="209" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="182" dataDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="201" dataDxfId="200">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4862,38 +4932,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="180" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="179" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="178"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="177" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="176" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="175" totalsRowDxfId="9" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="174" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="172"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="171"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="170" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="169"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="168" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="185"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="182"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="179"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="178" totalsRowDxfId="177">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="167" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="166" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="165" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="172" totalsRowDxfId="171">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="164" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="170" totalsRowDxfId="169"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="168" totalsRowDxfId="167"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4916,31 +4986,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="143"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="144"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="141"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="134" totalsRowDxfId="133">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="127"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5248,8 +5318,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6490,7 +6560,7 @@
         <v>118</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>119</v>
+        <v>572</v>
       </c>
       <c r="G25" s="6">
         <v>220000</v>
@@ -6958,7 +7028,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41">
@@ -6968,22 +7038,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="534" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8267,7 +8337,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41">
@@ -8277,22 +8347,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9576,7 +9646,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41">
@@ -9586,22 +9656,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10885,7 +10955,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41">
@@ -10895,22 +10965,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10940,7 +11010,7 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H10" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -11042,16 +11112,16 @@
         <v>45689</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="19">
         <v>220000</v>
@@ -11085,7 +11155,7 @@
         <v>45689</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
@@ -11102,16 +11172,16 @@
         <v>45692</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="19">
         <v>80000</v>
@@ -11145,7 +11215,7 @@
         <v>45692</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>33</v>
@@ -11156,16 +11226,16 @@
         <v>45692</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
@@ -11200,16 +11270,16 @@
         <v>45692</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="14"/>
@@ -11248,14 +11318,14 @@
         <v>45692</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="19">
         <v>57000</v>
@@ -11294,22 +11364,22 @@
         <v>45693</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="19">
         <v>1568322</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="17">
         <v>572900</v>
@@ -11352,22 +11422,22 @@
         <v>45695</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="19">
         <v>1290576</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="17">
         <v>666700</v>
@@ -11399,7 +11469,7 @@
         <v>45722</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -11407,16 +11477,16 @@
         <v>45705</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7">
         <v>80000</v>
@@ -11451,7 +11521,7 @@
         <v>45716</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -11459,20 +11529,20 @@
         <v>45705</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="19">
         <v>1122000</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="17">
         <v>686000</v>
@@ -11506,7 +11576,7 @@
         <v>45713</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -11514,16 +11584,16 @@
         <v>45706</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="14"/>
@@ -11559,22 +11629,22 @@
         <v>45706</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="G12" s="19">
         <v>722258</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="17">
         <v>230000</v>
@@ -11608,7 +11678,7 @@
         <v>45744</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -11616,13 +11686,13 @@
         <v>45707</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>74</v>
@@ -11660,7 +11730,7 @@
         <v>45716</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -11668,22 +11738,22 @@
         <v>45709</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="19">
         <v>446660</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I14" s="17">
         <v>135000</v>
@@ -11715,7 +11785,7 @@
         <v>45716</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -11723,14 +11793,14 @@
         <v>45713</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="7">
         <v>80000</v>
@@ -11767,16 +11837,16 @@
         <v>45714</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="G16" s="19">
         <v>480000</v>
@@ -11810,7 +11880,7 @@
         <v>45714</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -11818,14 +11888,14 @@
         <v>45715</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="19">
         <v>320000</v>
@@ -11859,7 +11929,7 @@
         <v>45716</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -11867,14 +11937,14 @@
         <v>45715</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="14"/>
@@ -12527,7 +12597,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41" s="15">
@@ -12537,42 +12607,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="492" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="486" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12602,8 +12672,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A23" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12699,15 +12769,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45719</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>184</v>
       </c>
       <c r="D2" s="14">
         <v>909</v>
@@ -12740,9 +12810,13 @@
         <f t="shared" ref="P2:P4" si="2">(M2/2+J2)</f>
         <v>30000</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="R2" s="31"/>
-      <c r="S2" s="14"/>
+      <c r="S2" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12753,21 +12827,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45720</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="D3" s="14">
         <v>210</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="7">
         <v>60000</v>
@@ -12795,9 +12869,13 @@
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="14"/>
+      <c r="S3" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="AC3" s="14" t="s">
         <v>33</v>
       </c>
@@ -12807,22 +12885,22 @@
         <v>45720</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="25">
         <v>480000</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I4" s="27">
         <v>118500</v>
@@ -12861,20 +12939,20 @@
         <v>45723</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="24">
         <v>400000</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" s="27">
         <v>22500</v>
@@ -12906,7 +12984,7 @@
         <v>45727</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -12917,16 +12995,16 @@
         <v>45726</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="14"/>
@@ -12958,19 +13036,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45726</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7">
         <v>80000</v>
@@ -12998,9 +13076,13 @@
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="31"/>
-      <c r="S7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="AC7" s="14" t="s">
         <v>50</v>
       </c>
@@ -13010,16 +13092,16 @@
         <v>45726</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="14"/>
@@ -13049,14 +13131,14 @@
         <v>45727</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="24">
         <v>600000</v>
@@ -13090,7 +13172,7 @@
         <v>45768</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -13098,16 +13180,16 @@
         <v>45728</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G10" s="24">
         <v>80000</v>
@@ -13141,7 +13223,7 @@
         <v>45728</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -13149,14 +13231,14 @@
         <v>45728</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="14"/>
@@ -13188,16 +13270,16 @@
         <v>45733</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="D12" s="1">
         <v>202</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="14"/>
@@ -13233,16 +13315,16 @@
         <v>45733</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="G13" s="24">
         <v>120000</v>
@@ -13282,16 +13364,16 @@
         <v>45734</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="14"/>
@@ -13327,16 +13409,16 @@
         <v>45734</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="14"/>
@@ -13368,16 +13450,16 @@
         <v>45734</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7">
         <v>40000</v>
@@ -13412,7 +13494,7 @@
         <v>45743</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -13420,16 +13502,16 @@
         <v>45735</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="14"/>
@@ -13461,16 +13543,16 @@
         <v>45735</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7">
         <v>80000</v>
@@ -13509,16 +13591,16 @@
         <v>45735</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>242</v>
       </c>
       <c r="F19" s="7">
         <v>120000</v>
@@ -13557,16 +13639,16 @@
         <v>45735</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="14"/>
@@ -13596,7 +13678,7 @@
       </c>
       <c r="R20" s="31"/>
       <c r="S20" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -13604,22 +13686,22 @@
         <v>45737</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="24">
         <v>1100000</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="27">
         <v>325400</v>
@@ -13651,7 +13733,7 @@
         <v>45742</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -13659,16 +13741,16 @@
         <v>45741</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="14"/>
@@ -13704,16 +13786,16 @@
         <v>45741</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>255</v>
+        <v>569</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="14"/>
@@ -13749,14 +13831,14 @@
         <v>45742</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="14"/>
@@ -13792,16 +13874,16 @@
         <v>45743</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7">
         <v>80000</v>
@@ -13836,7 +13918,7 @@
         <v>45743</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -13844,16 +13926,16 @@
         <v>45743</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="14"/>
@@ -13889,16 +13971,16 @@
         <v>45745</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="14"/>
@@ -13934,16 +14016,16 @@
         <v>45745</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="14"/>
@@ -13977,16 +14059,16 @@
         <v>45747</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="14"/>
@@ -14018,7 +14100,7 @@
         <v>45819</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -14342,34 +14424,34 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="15"/>
       <c r="I41" s="29"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla14[[NOTAS ]])</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="441" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14399,8 +14481,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="B13" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14463,7 +14545,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
@@ -14496,25 +14578,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45749</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>274</v>
+        <v>570</v>
       </c>
       <c r="G2" s="6">
         <v>420000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I2" s="19">
         <v>64500</v>
@@ -14542,10 +14624,14 @@
         <v>257550</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R2" s="31">
+        <v>45757</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>571</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14561,16 +14647,16 @@
         <v>45750</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D3" s="14">
         <v>301</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G3" s="6">
         <v>65000</v>
@@ -14604,7 +14690,7 @@
         <v>45750</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>33</v>
@@ -14615,22 +14701,22 @@
         <v>45750</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G4" s="6">
         <v>480000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I4" s="19">
         <v>111500</v>
@@ -14662,7 +14748,7 @@
         <v>45750</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>35</v>
@@ -14673,14 +14759,14 @@
         <v>45761</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7">
         <v>60000</v>
@@ -14717,7 +14803,7 @@
         <v>45761</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -14728,16 +14814,16 @@
         <v>45762</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G6" s="6">
         <v>120000</v>
@@ -14771,7 +14857,7 @@
         <v>45782</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
@@ -14782,16 +14868,16 @@
         <v>45767</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G7" s="6">
         <v>70000</v>
@@ -14825,7 +14911,7 @@
         <v>45771</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>50</v>
@@ -14836,16 +14922,16 @@
         <v>45768</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
@@ -14871,7 +14957,7 @@
       </c>
       <c r="R8" s="31"/>
       <c r="S8" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -14879,16 +14965,16 @@
         <v>45769</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7">
         <v>90000</v>
@@ -14923,7 +15009,7 @@
         <v>45771</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -14931,14 +15017,14 @@
         <v>45770</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7">
         <v>90000</v>
@@ -14975,7 +15061,7 @@
         <v>45771</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -14983,14 +15069,14 @@
         <v>45770</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G11" s="6">
         <v>1777136</v>
@@ -15026,7 +15112,7 @@
         <v>45840</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
@@ -15034,16 +15120,16 @@
         <v>45771</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -15075,14 +15161,14 @@
         <v>45771</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7">
         <v>90000</v>
@@ -15119,7 +15205,7 @@
         <v>45785</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
@@ -15127,14 +15213,14 @@
         <v>45772</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14">
         <v>301</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G14" s="6">
         <v>260000</v>
@@ -15168,7 +15254,7 @@
         <v>45785</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
@@ -15176,22 +15262,22 @@
         <v>45775</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G15" s="6">
         <v>480000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I15" s="19">
         <v>50000</v>
@@ -15225,7 +15311,7 @@
         <v>45785</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="58" x14ac:dyDescent="0.35">
@@ -15233,14 +15319,14 @@
         <v>45775</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14">
         <v>701</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G16" s="6">
         <v>300000</v>
@@ -15276,7 +15362,7 @@
         <v>45779</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -15284,22 +15370,22 @@
         <v>45777</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G17" s="6">
         <v>460800</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I17" s="19">
         <v>112000</v>
@@ -15333,7 +15419,7 @@
         <v>45779</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -16005,52 +16091,52 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla145[[NOTAS ]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="399" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="393" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16080,8 +16166,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A11" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16144,7 +16230,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
@@ -16182,23 +16268,23 @@
         <v>45779</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="6">
         <v>569000</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I2" s="24">
         <v>49000</v>
@@ -16230,7 +16316,7 @@
         <v>45799</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
@@ -16247,19 +16333,19 @@
         <v>45782</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="6">
         <v>65000</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I3" s="24">
         <v>1500</v>
@@ -16291,7 +16377,7 @@
         <v>45785</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>33</v>
@@ -16302,23 +16388,23 @@
         <v>45782</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="36">
         <v>60000</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="6">
@@ -16350,7 +16436,7 @@
         <v>45785</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>35</v>
@@ -16361,16 +16447,16 @@
         <v>45783</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F5" s="36">
         <v>120000</v>
@@ -16405,7 +16491,7 @@
         <v>45785</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -16416,16 +16502,16 @@
         <v>45785</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="6">
@@ -16460,7 +16546,7 @@
         <v>45785</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
@@ -16471,23 +16557,23 @@
         <v>45789</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="6">
         <v>580000</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I7" s="24">
         <v>117000</v>
@@ -16521,7 +16607,7 @@
         <v>45790</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>50</v>
@@ -16532,21 +16618,27 @@
         <v>45790</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F8" s="36"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="6">
+        <v>522867</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="I8" s="24">
+        <v>88000</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="14" t="s">
@@ -16554,40 +16646,44 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>434867</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>217433.5</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217433.5</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R8" s="31">
+        <v>45880</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45791</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F9" s="36">
         <v>90000</v>
@@ -16626,23 +16722,23 @@
         <v>45791</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="6">
         <v>1747200</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I10" s="24">
         <v>795000</v>
@@ -16674,7 +16770,7 @@
         <v>45803</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="58" x14ac:dyDescent="0.35">
@@ -16682,23 +16778,23 @@
         <v>45798</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="6">
         <v>1350000</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I11" s="24">
         <v>728000</v>
@@ -16730,7 +16826,7 @@
         <v>45819</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -16738,16 +16834,16 @@
         <v>45799</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="6">
@@ -16782,7 +16878,7 @@
         <v>45799</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -16790,16 +16886,16 @@
         <v>45803</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" s="36">
         <v>90000</v>
@@ -16834,7 +16930,7 @@
         <v>45804</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -16842,16 +16938,16 @@
         <v>45804</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="6"/>
@@ -16884,16 +16980,16 @@
         <v>45804</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F15" s="36">
         <v>80000</v>
@@ -16928,7 +17024,7 @@
         <v>45804</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -16936,16 +17032,16 @@
         <v>45807</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="6">
@@ -17675,134 +17771,134 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="37"/>
       <c r="G41" s="6"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla1456[[NOTAS ]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="349" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="343" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="337" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="331" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="325" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="319" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17934,16 +18030,16 @@
         <v>45811</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D2" s="14">
         <v>302</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G2" s="6">
         <v>60000</v>
@@ -17977,7 +18073,7 @@
         <v>45834</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
@@ -17994,16 +18090,16 @@
         <v>45812</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F3" s="7">
         <v>120000</v>
@@ -18045,16 +18141,16 @@
         <v>45815</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G4" s="6">
         <v>1000000</v>
@@ -18088,7 +18184,7 @@
         <v>45815</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>35</v>
@@ -18099,16 +18195,16 @@
         <v>45818</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>396</v>
       </c>
       <c r="F5" s="7">
         <v>150000</v>
@@ -18143,7 +18239,7 @@
         <v>45818</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -18154,20 +18250,20 @@
         <v>45818</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G6" s="6">
         <v>200000</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I6" s="6">
         <v>2000</v>
@@ -18199,7 +18295,7 @@
         <v>45818</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
@@ -18210,16 +18306,16 @@
         <v>45819</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G7" s="6">
         <v>500000</v>
@@ -18253,7 +18349,7 @@
         <v>45819</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>50</v>
@@ -18264,16 +18360,16 @@
         <v>45820</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D8" s="14">
         <v>101</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7">
         <v>50000</v>
@@ -18310,7 +18406,7 @@
         <v>45820</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
@@ -18318,10 +18414,10 @@
         <v>45820</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
@@ -18359,7 +18455,7 @@
         <v>45820</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
@@ -18367,22 +18463,22 @@
         <v>45824</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>410</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>413</v>
       </c>
       <c r="G10" s="6">
         <v>780000</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I10" s="6">
         <v>244500</v>
@@ -18416,7 +18512,7 @@
         <v>45826</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
@@ -18424,16 +18520,16 @@
         <v>45825</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="14"/>
@@ -18467,7 +18563,7 @@
         <v>45826</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39" t="s">
@@ -18510,7 +18606,7 @@
         <v>45834</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
@@ -18518,16 +18614,16 @@
         <v>45826</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="14"/>
@@ -18559,7 +18655,7 @@
         <v>45840</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -18567,16 +18663,16 @@
         <v>45826</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D14" s="14">
         <v>101</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G14" s="6">
         <v>160000</v>
@@ -18610,7 +18706,7 @@
         <v>45826</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -18618,16 +18714,16 @@
         <v>45827</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>429</v>
       </c>
       <c r="G15" s="6">
         <v>532000</v>
@@ -18661,7 +18757,7 @@
         <v>45835</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -18672,13 +18768,13 @@
         <v>109</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="14"/>
@@ -18714,13 +18810,13 @@
         <v>45828</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>32</v>
@@ -18757,7 +18853,7 @@
         <v>45834</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -18765,16 +18861,16 @@
         <v>45828</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>437</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="14"/>
@@ -18808,16 +18904,16 @@
         <v>45832</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>438</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>441</v>
       </c>
       <c r="G19" s="6">
         <v>50000</v>
@@ -18851,7 +18947,7 @@
         <v>45834</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -18859,16 +18955,16 @@
         <v>45832</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G20" s="6">
         <v>237585</v>
@@ -18904,7 +19000,7 @@
         <v>45833</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -18912,22 +19008,22 @@
         <v>45833</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G21" s="6">
         <v>150000</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I21" s="6">
         <v>20000</v>
@@ -18959,7 +19055,7 @@
         <v>45834</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -18967,16 +19063,16 @@
         <v>45834</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7">
         <v>50000</v>
@@ -19017,22 +19113,22 @@
         <v>45834</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>454</v>
       </c>
       <c r="G23" s="6">
         <v>280000</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I23" s="6">
         <v>31000</v>
@@ -19064,7 +19160,7 @@
         <v>45834</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -19072,14 +19168,14 @@
         <v>45835</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="14"/>
@@ -19115,16 +19211,16 @@
         <v>45836</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="G25" s="6">
         <v>400000</v>
@@ -19158,7 +19254,7 @@
         <v>45852</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -19624,7 +19720,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="15"/>
@@ -19635,22 +19731,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="276" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19680,8 +19776,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19782,16 +19878,16 @@
         <v>45840</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>466</v>
       </c>
       <c r="G2" s="17">
         <v>960000</v>
@@ -19825,7 +19921,7 @@
         <v>45859</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
@@ -19842,16 +19938,16 @@
         <v>45841</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>468</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>471</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="14"/>
@@ -19888,16 +19984,16 @@
         <v>45841</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D4" s="1">
         <v>501</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7">
         <v>90000</v>
@@ -19941,16 +20037,16 @@
         <v>45842</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>478</v>
       </c>
       <c r="G5" s="17">
         <v>1000000</v>
@@ -19984,7 +20080,7 @@
         <v>45842</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -19995,22 +20091,22 @@
         <v>45846</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G6" s="17">
         <v>452687</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I6" s="17">
         <v>60000</v>
@@ -20044,7 +20140,7 @@
         <v>45862</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
@@ -20055,16 +20151,16 @@
         <v>45848</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F7" s="7">
         <v>120000</v>
@@ -20099,7 +20195,7 @@
         <v>45859</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>50</v>
@@ -20110,16 +20206,16 @@
         <v>45849</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="14"/>
@@ -20153,22 +20249,22 @@
         <v>45852</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G9" s="17">
         <v>740265</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I9" s="17">
         <v>162000</v>
@@ -20202,7 +20298,7 @@
         <v>45868</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -20210,16 +20306,16 @@
         <v>45852</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="F10" s="7">
         <v>150000</v>
@@ -20254,7 +20350,7 @@
         <v>45853</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
@@ -20262,22 +20358,22 @@
         <v>45853</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G11" s="17">
         <v>580000</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I11" s="17">
         <v>26000</v>
@@ -20309,7 +20405,7 @@
         <v>45855</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -20317,16 +20413,16 @@
         <v>45854</v>
       </c>
       <c r="B12" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>500</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>503</v>
       </c>
       <c r="G12" s="17">
         <v>280000</v>
@@ -20360,7 +20456,7 @@
         <v>45859</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="58" x14ac:dyDescent="0.35">
@@ -20368,16 +20464,16 @@
         <v>45859</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G13" s="17">
         <v>400000</v>
@@ -20411,7 +20507,7 @@
         <v>45859</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -20419,13 +20515,13 @@
         <v>45859</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>32</v>
@@ -20462,7 +20558,7 @@
         <v>45859</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
@@ -20470,16 +20566,16 @@
         <v>45860</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="14"/>
@@ -20515,14 +20611,14 @@
         <v>45862</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="14"/>
@@ -20558,16 +20654,16 @@
         <v>45866</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7">
         <v>80000</v>
@@ -20602,24 +20698,24 @@
         <v>45868</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45866</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F18" s="7">
         <v>120000</v>
@@ -20648,26 +20744,28 @@
         <v>60000</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R18" s="2"/>
-      <c r="S18" s="14"/>
+      <c r="S18" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45866</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>525</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>528</v>
       </c>
       <c r="G19" s="17">
         <v>60000</v>
@@ -20701,7 +20799,7 @@
         <v>45868</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -20709,14 +20807,14 @@
         <v>45866</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7">
         <v>120000</v>
@@ -20753,22 +20851,22 @@
         <v>45868</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G21" s="17">
         <v>807789</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I21" s="17">
         <v>170000</v>
@@ -20802,7 +20900,7 @@
         <v>45868</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -20810,16 +20908,16 @@
         <v>45869</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="14"/>
@@ -21374,7 +21472,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="18"/>
@@ -21382,27 +21480,27 @@
       <c r="I41" s="18"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla145678[[NOTAS ]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="232" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21432,21 +21530,21 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.90625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
     <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="17.453125" customWidth="1"/>
@@ -21456,7 +21554,7 @@
     <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
     <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
     <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="65.1796875" style="15" customWidth="1"/>
+    <col min="19" max="19" width="65.26953125" style="15" customWidth="1"/>
     <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
@@ -21468,7 +21566,7 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -21486,7 +21584,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -21534,21 +21632,21 @@
         <v>45870</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="7">
         <v>120000</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -21589,23 +21687,23 @@
         <v>45873</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>542</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F3" s="7">
         <v>80000</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="L3" s="14" t="s">
@@ -21638,21 +21736,21 @@
         <v>45873</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F4" s="7">
         <v>80000</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="L4" s="14" t="s">
@@ -21685,21 +21783,21 @@
         <v>45874</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F5" s="7">
         <v>80000</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="L5" s="14" t="s">
@@ -21727,7 +21825,7 @@
         <v>45875</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>39</v>
@@ -21738,20 +21836,20 @@
         <v>45875</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="G6" s="4">
+        <v>548</v>
+      </c>
+      <c r="G6" s="6">
         <v>800000</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="L6" s="14" t="s">
@@ -21779,53 +21877,79 @@
         <v>45875</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="4"/>
+    <row r="7" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="14"/>
       <c r="AC7" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="4"/>
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
       <c r="L8" s="14"/>
@@ -21842,77 +21966,119 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" s="6">
+        <v>240000</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>240000</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="1"/>
+        <v>120000</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="2"/>
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
       <c r="L11" s="14"/>
@@ -21929,19 +22095,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
       <c r="L12" s="14"/>
@@ -21965,12 +22133,12 @@
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
       <c r="L13" s="14"/>
@@ -21994,12 +22162,12 @@
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
       <c r="L14" s="14"/>
@@ -22023,12 +22191,12 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
       <c r="L15" s="14"/>
@@ -22052,12 +22220,12 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
       <c r="L16" s="14"/>
@@ -22081,12 +22249,12 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
       <c r="L17" s="14"/>
@@ -22110,12 +22278,12 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
       <c r="L18" s="14"/>
@@ -22139,12 +22307,12 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
       <c r="L19" s="14"/>
@@ -22168,12 +22336,12 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
       <c r="L20" s="14"/>
@@ -22197,12 +22365,12 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
       <c r="L21" s="14"/>
@@ -22226,12 +22394,12 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
       <c r="L22" s="14"/>
@@ -22255,12 +22423,12 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="K23" s="6"/>
       <c r="L23" s="14"/>
@@ -22284,12 +22452,12 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
       <c r="L24" s="14"/>
@@ -22313,12 +22481,12 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
       <c r="L25" s="14"/>
@@ -22342,12 +22510,12 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
       <c r="L26" s="14"/>
@@ -22371,12 +22539,12 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
       <c r="L27" s="14"/>
@@ -22400,12 +22568,12 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
       <c r="L28" s="14"/>
@@ -22429,12 +22597,12 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
       <c r="L29" s="14"/>
@@ -22458,12 +22626,12 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
       <c r="L30" s="14"/>
@@ -22487,12 +22655,12 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
       <c r="L31" s="14"/>
@@ -22516,12 +22684,12 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
       <c r="L32" s="14"/>
@@ -22545,12 +22713,12 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
       <c r="L33" s="14"/>
@@ -22574,12 +22742,12 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
       <c r="L34" s="14"/>
@@ -22603,12 +22771,12 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
       <c r="L35" s="14"/>
@@ -22632,12 +22800,12 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
       <c r="L36" s="14"/>
@@ -22661,12 +22829,12 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
       <c r="L37" s="14"/>
@@ -22690,12 +22858,12 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
       <c r="L38" s="14"/>
@@ -22719,12 +22887,12 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
       <c r="L39" s="14"/>
@@ -22748,12 +22916,12 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
       <c r="L40" s="14"/>
@@ -22776,7 +22944,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41" s="15">
@@ -22786,22 +22954,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="188" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24085,7 +24253,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41">
@@ -24095,22 +24263,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="163" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2238" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB4DE96-7BDD-4D03-A403-25F2A905BEF5}"/>
+  <xr:revisionPtr revIDLastSave="2266" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096735D6-71CE-2346-BBD0-9F26B8494D64}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,28 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="583">
   <si>
     <t>FECHA</t>
   </si>
@@ -1761,6 +1772,30 @@
   </si>
   <si>
     <t xml:space="preserve">EL CLIENTE NO QUISO PAGAR EL DOMICILIO SEGÚN EL PORQUE NO SE HIZO UNA REVISION COMPLETA DEL SISTEMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOLAND - Valentina Ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIO AUTOMOTRIZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotización para instalación de electroimán biométrico y brazo hidráulico </t>
+  </si>
+  <si>
+    <t>CRA 70 # 95 -15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 1DBIS # 25A - 57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arreglo de cerradura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFICIO CIMA - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambio de esquinero inferior para puerta de vidrio con Omar </t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1803,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -1812,8 +1847,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1950,16 +1985,10 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1991,7 +2020,808 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2114,48 +2944,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2276,48 +3064,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2438,48 +3184,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2600,55 +3304,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2656,6 +3312,86 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2700,23 +3436,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2750,10 +3493,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2779,165 +3519,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3083,48 +3664,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3267,258 +3806,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3664,90 +3951,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3901,48 +4104,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4092,90 +4253,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4313,48 +4390,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4369,7 +4404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="536" dataDxfId="535">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4392,38 +4427,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="528" totalsRowDxfId="527"/>
-    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="526"/>
-    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="515"/>
-    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="508"/>
-    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="507" totalsRowDxfId="506">
+    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="532"/>
+    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="531" totalsRowDxfId="530"/>
+    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="529" totalsRowDxfId="528"/>
+    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="527" totalsRowDxfId="526"/>
+    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="521"/>
+    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="520" totalsRowDxfId="519"/>
+    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="518" totalsRowDxfId="517"/>
+    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="516" totalsRowDxfId="515"/>
+    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="514"/>
+    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="513" totalsRowDxfId="512">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="503" totalsRowDxfId="502">
+    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="509" totalsRowDxfId="508">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="501" totalsRowDxfId="500">
+    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="507" totalsRowDxfId="506">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="495"/>
+    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="501"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4446,38 +4481,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="107"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="214" totalsRowDxfId="213" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="205"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="204" totalsRowDxfId="203">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="200" totalsRowDxfId="199">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="198" totalsRowDxfId="197">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="91"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4500,38 +4535,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="179"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="177"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="174"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="169" totalsRowDxfId="168">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="167" totalsRowDxfId="166">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4554,38 +4589,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="153"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="147"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="146"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="482" dataDxfId="481">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="500" dataDxfId="499">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4608,38 +4643,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="470" totalsRowDxfId="469" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="458"/>
-    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="457" totalsRowDxfId="456">
+    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="488" totalsRowDxfId="487" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="486" totalsRowDxfId="485"/>
+    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="484" totalsRowDxfId="483"/>
+    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="482" totalsRowDxfId="481"/>
+    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="476"/>
+    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="475" totalsRowDxfId="474">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="455" totalsRowDxfId="454"/>
-    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="453" totalsRowDxfId="452">
+    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="471" totalsRowDxfId="470">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="451" totalsRowDxfId="450">
+    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="469" totalsRowDxfId="468">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="449" totalsRowDxfId="448"/>
-    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="447" totalsRowDxfId="446"/>
-    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="445" totalsRowDxfId="444"/>
+    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="437" dataDxfId="436">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4662,38 +4697,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="435" totalsRowDxfId="434"/>
-    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="433"/>
-    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="430"/>
-    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="427" totalsRowDxfId="426" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="425" totalsRowDxfId="424"/>
-    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="421" totalsRowDxfId="420" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="419"/>
-    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="418" totalsRowDxfId="417"/>
-    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="416"/>
-    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="415" totalsRowDxfId="414">
+    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="459" totalsRowDxfId="458"/>
+    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="457"/>
+    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="454"/>
+    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="453" totalsRowDxfId="452"/>
+    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="451" totalsRowDxfId="450" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="449" totalsRowDxfId="448"/>
+    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="447" totalsRowDxfId="446"/>
+    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="445" totalsRowDxfId="444" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="443"/>
+    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="440"/>
+    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="439" totalsRowDxfId="438">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="413" totalsRowDxfId="412"/>
-    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="411" totalsRowDxfId="410">
+    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="437" totalsRowDxfId="436"/>
+    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="435" totalsRowDxfId="434">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="409" totalsRowDxfId="408">
+    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="433" totalsRowDxfId="432">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
+    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="431" totalsRowDxfId="430"/>
+    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="429" totalsRowDxfId="428"/>
+    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="389" dataDxfId="388">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="425" dataDxfId="424">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4716,38 +4751,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="377" totalsRowDxfId="376" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="373"/>
-    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="372" totalsRowDxfId="371"/>
-    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="370" totalsRowDxfId="369"/>
-    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="368" totalsRowDxfId="367"/>
-    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="366"/>
-    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="365" totalsRowDxfId="364">
+    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="423" totalsRowDxfId="422"/>
+    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="421" totalsRowDxfId="420"/>
+    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="419" totalsRowDxfId="418"/>
+    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="417" totalsRowDxfId="416"/>
+    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="415" totalsRowDxfId="414"/>
+    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="413" totalsRowDxfId="412" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="411" totalsRowDxfId="410"/>
+    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="409"/>
+    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="402"/>
+    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="401" totalsRowDxfId="400">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="361" totalsRowDxfId="360">
+    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="399" totalsRowDxfId="398"/>
+    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="397" totalsRowDxfId="396">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="359" totalsRowDxfId="358">
+    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="395" totalsRowDxfId="394">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="393" totalsRowDxfId="392"/>
+    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="391" totalsRowDxfId="390"/>
+    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="315" dataDxfId="314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="387" dataDxfId="386">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4770,38 +4805,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="313" totalsRowDxfId="312"/>
-    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="311" totalsRowDxfId="310"/>
-    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="309" totalsRowDxfId="308"/>
-    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="307"/>
-    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="304" totalsRowDxfId="303" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="302" totalsRowDxfId="301"/>
-    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="300"/>
-    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="293"/>
-    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="292" totalsRowDxfId="291">
+    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="379"/>
+    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="378" totalsRowDxfId="377"/>
+    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="376" totalsRowDxfId="375" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="374" totalsRowDxfId="373"/>
+    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="372"/>
+    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="365"/>
+    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="364" totalsRowDxfId="363">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="290" totalsRowDxfId="289"/>
-    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="288" totalsRowDxfId="287">
+    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="360" totalsRowDxfId="359">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="286" totalsRowDxfId="285">
+    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="358" totalsRowDxfId="357">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="272" dataDxfId="271">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="350" dataDxfId="349">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4824,38 +4859,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="270" totalsRowDxfId="269"/>
-    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="264"/>
-    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="263" totalsRowDxfId="262"/>
-    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="261" totalsRowDxfId="260" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="249"/>
-    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="248" totalsRowDxfId="247">
+    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="342"/>
+    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="339" totalsRowDxfId="338" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="327"/>
+    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="326" totalsRowDxfId="325">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="244" totalsRowDxfId="243">
+    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="322" totalsRowDxfId="321">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="242" totalsRowDxfId="241">
+    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="320" totalsRowDxfId="319">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="228" dataDxfId="227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="312" dataDxfId="311">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4878,38 +4913,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="226" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="225" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="224" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="223"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="222" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="221" totalsRowDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="220" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="219" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="218" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="217" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="216" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="215"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="214" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="304"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="303" totalsRowDxfId="302"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="301" totalsRowDxfId="300" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="299" totalsRowDxfId="298"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="293" totalsRowDxfId="292"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="291" totalsRowDxfId="290"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="289"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="288" totalsRowDxfId="287">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="213" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="212" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="284" totalsRowDxfId="283">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="211" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="282" totalsRowDxfId="281">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="210" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="209" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="201" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="274" dataDxfId="273">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4932,38 +4967,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="189" totalsRowDxfId="188" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="185"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="182"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="179"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="178" totalsRowDxfId="177">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="272" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="271" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="270" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="269" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="268" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="267" totalsRowDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="266" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="265"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="264" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="263"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="262" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="261"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="260" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="259" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="258" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="257" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="256" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="255" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="253" dataDxfId="252">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4986,40 +5021,40 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="146"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="243" totalsRowDxfId="242"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="241"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="240"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="239"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="236"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="235" totalsRowDxfId="234">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="233" totalsRowDxfId="232"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="231" totalsRowDxfId="230">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="229" totalsRowDxfId="228">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="128"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5057,7 +5092,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5163,7 +5198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5305,7 +5340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5318,37 +5353,37 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A18" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.4765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34.03125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0859375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.52734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.45703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.53125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.14453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.390625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.76171875" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.1796875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.81640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5859375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.86328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.390625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.24609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>45659</v>
       </c>
@@ -5480,7 +5515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>45659</v>
       </c>
@@ -5532,7 +5567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>45661</v>
       </c>
@@ -5584,7 +5619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>45664</v>
       </c>
@@ -5636,7 +5671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>45665</v>
       </c>
@@ -5691,7 +5726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>45665</v>
       </c>
@@ -5745,7 +5780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>45666</v>
       </c>
@@ -5796,7 +5831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45667</v>
       </c>
@@ -5851,7 +5886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45677</v>
       </c>
@@ -5896,7 +5931,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>45678</v>
       </c>
@@ -5947,7 +5982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>45679</v>
       </c>
@@ -5988,7 +6023,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>45679</v>
       </c>
@@ -6036,7 +6071,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>45679</v>
       </c>
@@ -6087,7 +6122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>45680</v>
       </c>
@@ -6133,7 +6168,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45680</v>
       </c>
@@ -6178,7 +6213,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45681</v>
       </c>
@@ -6228,7 +6263,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>45681</v>
       </c>
@@ -6280,7 +6315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>45684</v>
       </c>
@@ -6333,7 +6368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45685</v>
       </c>
@@ -6378,7 +6413,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>45685</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>45687</v>
       </c>
@@ -6460,7 +6495,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45687</v>
       </c>
@@ -6501,7 +6536,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45687</v>
       </c>
@@ -6546,7 +6581,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>45688</v>
       </c>
@@ -6591,7 +6626,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="1"/>
       <c r="C26" s="14"/>
@@ -6620,7 +6655,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14"/>
@@ -6649,7 +6684,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="1"/>
       <c r="C28" s="14"/>
@@ -6678,7 +6713,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="1"/>
       <c r="C29" s="14"/>
@@ -6707,7 +6742,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -6736,7 +6771,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -6765,7 +6800,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -6794,7 +6829,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -6823,7 +6858,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -6852,7 +6887,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -6881,7 +6916,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -6910,7 +6945,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -6939,7 +6974,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -6968,7 +7003,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -6997,7 +7032,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -7026,7 +7061,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -7038,22 +7073,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="536" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7087,32 +7122,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="3" max="3" width="17.484375" customWidth="1"/>
+    <col min="4" max="4" width="13.71875" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7180,7 +7215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7218,7 +7253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7250,7 +7285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7282,7 +7317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7314,7 +7349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7346,7 +7381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7378,7 +7413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7407,7 +7442,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7436,7 +7471,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7465,7 +7500,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7494,7 +7529,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7523,7 +7558,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7552,7 +7587,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7581,7 +7616,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7610,7 +7645,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7639,7 +7674,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7668,7 +7703,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7697,7 +7732,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7726,7 +7761,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7755,7 +7790,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7784,7 +7819,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7813,7 +7848,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7842,7 +7877,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7871,7 +7906,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7900,7 +7935,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7929,7 +7964,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7958,7 +7993,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7987,7 +8022,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8016,7 +8051,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8045,7 +8080,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8074,7 +8109,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8103,7 +8138,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8132,7 +8167,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8161,7 +8196,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8190,7 +8225,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8219,7 +8254,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8248,7 +8283,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8277,7 +8312,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8306,7 +8341,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8335,7 +8370,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -8347,22 +8382,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8396,32 +8431,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="3" max="3" width="17.484375" customWidth="1"/>
+    <col min="4" max="4" width="13.71875" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8489,7 +8524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8527,7 +8562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8559,7 +8594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8591,7 +8626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8623,7 +8658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8655,7 +8690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8687,7 +8722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8716,7 +8751,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8745,7 +8780,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8774,7 +8809,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8803,7 +8838,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8832,7 +8867,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8861,7 +8896,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8890,7 +8925,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8919,7 +8954,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8948,7 +8983,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8977,7 +9012,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9006,7 +9041,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9035,7 +9070,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9064,7 +9099,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9093,7 +9128,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9122,7 +9157,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9151,7 +9186,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9180,7 +9215,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9209,7 +9244,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9238,7 +9273,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9267,7 +9302,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9296,7 +9331,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9325,7 +9360,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -9354,7 +9389,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -9383,7 +9418,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -9412,7 +9447,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9441,7 +9476,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9470,7 +9505,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -9499,7 +9534,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9528,7 +9563,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -9557,7 +9592,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9586,7 +9621,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9615,7 +9650,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9644,7 +9679,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -9656,22 +9691,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9705,32 +9740,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="3" max="3" width="17.484375" customWidth="1"/>
+    <col min="4" max="4" width="13.71875" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +9833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9836,7 +9871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9868,7 +9903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9900,7 +9935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9932,7 +9967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -9964,7 +9999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -9996,7 +10031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10025,7 +10060,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10054,7 +10089,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10083,7 +10118,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -10112,7 +10147,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10141,7 +10176,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10170,7 +10205,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10199,7 +10234,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10228,7 +10263,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10257,7 +10292,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10286,7 +10321,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10315,7 +10350,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10344,7 +10379,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10373,7 +10408,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10402,7 +10437,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10431,7 +10466,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10460,7 +10495,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10489,7 +10524,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10518,7 +10553,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10547,7 +10582,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10576,7 +10611,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10605,7 +10640,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10634,7 +10669,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10663,7 +10698,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10692,7 +10727,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10721,7 +10756,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10750,7 +10785,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10779,7 +10814,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -10808,7 +10843,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10837,7 +10872,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10866,7 +10901,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10895,7 +10930,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10924,7 +10959,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -10953,7 +10988,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -10965,22 +11000,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11010,36 +11045,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="45.1796875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.53515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.5390625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.1015625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -11107,7 +11142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>45689</v>
       </c>
@@ -11167,7 +11202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>45692</v>
       </c>
@@ -11221,7 +11256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>45692</v>
       </c>
@@ -11265,7 +11300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>45692</v>
       </c>
@@ -11313,7 +11348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>45692</v>
       </c>
@@ -11359,7 +11394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>45693</v>
       </c>
@@ -11417,7 +11452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>45695</v>
       </c>
@@ -11472,7 +11507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>45705</v>
       </c>
@@ -11524,7 +11559,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>45705</v>
       </c>
@@ -11579,7 +11614,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>45706</v>
       </c>
@@ -11624,7 +11659,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>45706</v>
       </c>
@@ -11681,7 +11716,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>45707</v>
       </c>
@@ -11733,7 +11768,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>45709</v>
       </c>
@@ -11788,7 +11823,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>45713</v>
       </c>
@@ -11832,7 +11867,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>45714</v>
       </c>
@@ -11883,7 +11918,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>45715</v>
       </c>
@@ -11932,7 +11967,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>45715</v>
       </c>
@@ -11969,7 +12004,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -11995,7 +12030,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12024,7 +12059,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12044,7 +12079,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12073,7 +12108,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -12102,7 +12137,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -12131,7 +12166,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -12160,7 +12195,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -12189,7 +12224,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -12218,7 +12253,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -12247,7 +12282,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -12276,7 +12311,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -12305,7 +12340,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -12334,7 +12369,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -12363,7 +12398,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12392,7 +12427,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -12421,7 +12456,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12450,7 +12485,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -12479,7 +12514,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -12508,7 +12543,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -12537,7 +12572,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -12566,7 +12601,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -12595,7 +12630,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -12607,42 +12642,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="494" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="488" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12672,36 +12707,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A25" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.53515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.96484375" customWidth="1"/>
+    <col min="5" max="5" width="37.53125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12769,7 +12804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>45719</v>
       </c>
@@ -12827,7 +12862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>45720</v>
       </c>
@@ -12880,7 +12915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>45720</v>
       </c>
@@ -12934,7 +12969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>45723</v>
       </c>
@@ -12990,7 +13025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>45726</v>
       </c>
@@ -13036,7 +13071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>45726</v>
       </c>
@@ -13087,7 +13122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>45726</v>
       </c>
@@ -13126,7 +13161,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45727</v>
       </c>
@@ -13175,7 +13210,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45728</v>
       </c>
@@ -13226,7 +13261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>45728</v>
       </c>
@@ -13265,7 +13300,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>45733</v>
       </c>
@@ -13310,7 +13345,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>45733</v>
       </c>
@@ -13359,7 +13394,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>45734</v>
       </c>
@@ -13404,7 +13439,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>45734</v>
       </c>
@@ -13445,7 +13480,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45734</v>
       </c>
@@ -13497,7 +13532,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45735</v>
       </c>
@@ -13538,7 +13573,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>45735</v>
       </c>
@@ -13586,7 +13621,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>45735</v>
       </c>
@@ -13634,7 +13669,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45735</v>
       </c>
@@ -13681,7 +13716,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>45737</v>
       </c>
@@ -13736,7 +13771,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>45741</v>
       </c>
@@ -13781,7 +13816,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45741</v>
       </c>
@@ -13826,7 +13861,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45742</v>
       </c>
@@ -13869,7 +13904,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>45743</v>
       </c>
@@ -13921,7 +13956,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>45743</v>
       </c>
@@ -13966,7 +14001,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>45745</v>
       </c>
@@ -14011,7 +14046,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
         <v>45745</v>
       </c>
@@ -14054,7 +14089,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>45747</v>
       </c>
@@ -14103,7 +14138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -14132,7 +14167,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -14161,7 +14196,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -14190,7 +14225,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -14219,7 +14254,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -14248,7 +14283,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -14277,7 +14312,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -14306,7 +14341,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -14335,7 +14370,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -14364,7 +14399,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -14393,7 +14428,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -14422,7 +14457,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -14436,22 +14471,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14481,36 +14516,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.19140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.5390625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.484375" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="46.26953125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="46.2734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -14578,7 +14613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>45749</v>
       </c>
@@ -14642,7 +14677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>45750</v>
       </c>
@@ -14696,7 +14731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>45750</v>
       </c>
@@ -14754,7 +14789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>45761</v>
       </c>
@@ -14809,7 +14844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>45762</v>
       </c>
@@ -14863,7 +14898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>45767</v>
       </c>
@@ -14917,7 +14952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>45768</v>
       </c>
@@ -14960,7 +14995,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>45769</v>
       </c>
@@ -15012,7 +15047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>45770</v>
       </c>
@@ -15064,7 +15099,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>45770</v>
       </c>
@@ -15115,7 +15150,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>45771</v>
       </c>
@@ -15156,7 +15191,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>45771</v>
       </c>
@@ -15208,7 +15243,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>45772</v>
       </c>
@@ -15257,7 +15292,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>45775</v>
       </c>
@@ -15314,7 +15349,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>45775</v>
       </c>
@@ -15365,7 +15400,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>45777</v>
       </c>
@@ -15422,7 +15457,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -15451,7 +15486,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="30"/>
@@ -15480,7 +15515,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -15509,7 +15544,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -15538,7 +15573,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -15567,7 +15602,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -15596,7 +15631,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -15625,7 +15660,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -15654,7 +15689,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -15683,7 +15718,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -15712,7 +15747,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -15741,7 +15776,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -15770,7 +15805,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -15799,7 +15834,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -15828,7 +15863,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -15857,7 +15892,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -15886,7 +15921,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -15915,7 +15950,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -15944,7 +15979,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -15973,7 +16008,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -16002,7 +16037,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -16031,7 +16066,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -16060,7 +16095,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -16089,7 +16124,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -16101,42 +16136,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="401" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="395" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16166,36 +16201,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.5234375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5625" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -16263,7 +16298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>45779</v>
       </c>
@@ -16328,7 +16363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A3" s="33">
         <v>45782</v>
       </c>
@@ -16383,7 +16418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>45782</v>
       </c>
@@ -16442,7 +16477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>45783</v>
       </c>
@@ -16497,7 +16532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>45785</v>
       </c>
@@ -16552,7 +16587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>45789</v>
       </c>
@@ -16613,7 +16648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>45790</v>
       </c>
@@ -16669,7 +16704,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>45791</v>
       </c>
@@ -16717,7 +16752,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>45791</v>
       </c>
@@ -16773,7 +16808,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>45798</v>
       </c>
@@ -16829,7 +16864,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>45799</v>
       </c>
@@ -16881,7 +16916,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>45803</v>
       </c>
@@ -16933,7 +16968,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>45804</v>
       </c>
@@ -16975,7 +17010,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>45804</v>
       </c>
@@ -17027,7 +17062,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>45807</v>
       </c>
@@ -17073,7 +17108,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="1"/>
@@ -17102,7 +17137,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="1"/>
@@ -17131,7 +17166,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="1"/>
@@ -17160,7 +17195,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="1"/>
@@ -17189,7 +17224,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="1"/>
@@ -17218,7 +17253,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="1"/>
@@ -17247,7 +17282,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="1"/>
@@ -17276,7 +17311,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="1"/>
@@ -17305,7 +17340,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="1"/>
@@ -17334,7 +17369,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="1"/>
@@ -17363,7 +17398,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="1"/>
@@ -17392,7 +17427,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="1"/>
@@ -17421,7 +17456,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="1"/>
@@ -17450,7 +17485,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="1"/>
@@ -17479,7 +17514,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="1"/>
@@ -17508,7 +17543,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="1"/>
@@ -17537,7 +17572,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="1"/>
@@ -17566,7 +17601,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="1"/>
@@ -17595,7 +17630,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="1"/>
@@ -17624,7 +17659,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="1"/>
@@ -17653,7 +17688,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="1"/>
@@ -17682,7 +17717,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="1"/>
@@ -17711,7 +17746,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="1"/>
@@ -17740,7 +17775,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="1"/>
@@ -17769,7 +17804,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>119</v>
       </c>
@@ -17783,122 +17818,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="351" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="345" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="339" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="333" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="327" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="321" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17928,36 +17963,36 @@
   </sheetPr>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18025,7 +18060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45811</v>
       </c>
@@ -18085,7 +18120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -18136,7 +18171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45815</v>
       </c>
@@ -18190,7 +18225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45818</v>
       </c>
@@ -18245,7 +18280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45818</v>
       </c>
@@ -18301,7 +18336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45819</v>
       </c>
@@ -18355,7 +18390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45820</v>
       </c>
@@ -18409,7 +18444,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45820</v>
       </c>
@@ -18458,7 +18493,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45824</v>
       </c>
@@ -18515,7 +18550,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>45825</v>
       </c>
@@ -18558,7 +18593,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>45826</v>
       </c>
@@ -18609,7 +18644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -18658,7 +18693,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45826</v>
       </c>
@@ -18709,7 +18744,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -18760,7 +18795,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45827</v>
       </c>
@@ -18805,7 +18840,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45828</v>
       </c>
@@ -18856,7 +18891,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45828</v>
       </c>
@@ -18899,7 +18934,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45832</v>
       </c>
@@ -18950,7 +18985,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45832</v>
       </c>
@@ -19003,7 +19038,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45833</v>
       </c>
@@ -19058,7 +19093,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45834</v>
       </c>
@@ -19108,7 +19143,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45834</v>
       </c>
@@ -19163,7 +19198,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45835</v>
       </c>
@@ -19206,7 +19241,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45836</v>
       </c>
@@ -19257,7 +19292,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -19283,7 +19318,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -19312,7 +19347,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -19341,7 +19376,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -19370,7 +19405,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -19399,7 +19434,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -19428,7 +19463,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -19457,7 +19492,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -19486,7 +19521,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -19515,7 +19550,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -19544,7 +19579,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -19573,7 +19608,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -19602,7 +19637,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -19631,7 +19666,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -19660,7 +19695,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -19689,7 +19724,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -19718,7 +19753,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -19731,22 +19766,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="278" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19776,36 +19811,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.45703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.17578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6953125" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19873,7 +19908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45840</v>
       </c>
@@ -19933,7 +19968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45841</v>
       </c>
@@ -19979,7 +20014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45841</v>
       </c>
@@ -20032,7 +20067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45842</v>
       </c>
@@ -20086,7 +20121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45846</v>
       </c>
@@ -20146,7 +20181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45848</v>
       </c>
@@ -20201,7 +20236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45849</v>
       </c>
@@ -20244,7 +20279,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45852</v>
       </c>
@@ -20301,7 +20336,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45852</v>
       </c>
@@ -20353,7 +20388,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45853</v>
       </c>
@@ -20408,7 +20443,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45854</v>
       </c>
@@ -20459,7 +20494,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45859</v>
       </c>
@@ -20510,7 +20545,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45859</v>
       </c>
@@ -20561,7 +20596,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45860</v>
       </c>
@@ -20606,7 +20641,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45862</v>
       </c>
@@ -20649,7 +20684,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45866</v>
       </c>
@@ -20701,7 +20736,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45866</v>
       </c>
@@ -20751,7 +20786,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45866</v>
       </c>
@@ -20802,7 +20837,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45866</v>
       </c>
@@ -20846,7 +20881,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45868</v>
       </c>
@@ -20903,7 +20938,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45869</v>
       </c>
@@ -20948,7 +20983,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -20977,7 +21012,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -21006,7 +21041,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -21035,7 +21070,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -21064,7 +21099,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -21093,7 +21128,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -21122,7 +21157,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -21151,7 +21186,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -21180,7 +21215,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -21209,7 +21244,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -21238,7 +21273,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -21267,7 +21302,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -21296,7 +21331,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -21325,7 +21360,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -21354,7 +21389,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -21383,7 +21418,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -21412,7 +21447,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -21441,7 +21476,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -21470,7 +21505,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -21485,22 +21520,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="234" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21530,36 +21565,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="65.26953125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.98046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.90234375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="65.2421875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21627,7 +21662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45870</v>
       </c>
@@ -21682,7 +21717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45873</v>
       </c>
@@ -21731,7 +21766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45873</v>
       </c>
@@ -21778,7 +21813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45874</v>
       </c>
@@ -21831,7 +21866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45875</v>
       </c>
@@ -21883,7 +21918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45880</v>
       </c>
@@ -21931,7 +21966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45880</v>
       </c>
@@ -21972,7 +22007,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45881</v>
       </c>
@@ -22017,7 +22052,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45882</v>
       </c>
@@ -22060,7 +22095,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45882</v>
       </c>
@@ -22101,12 +22136,22 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
@@ -22126,69 +22171,99 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>579</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="14">
+        <v>501</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" s="6">
+        <v>70000</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>70000</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="2"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45888</v>
+      </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>582</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -22217,7 +22292,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -22246,7 +22321,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -22275,7 +22350,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -22304,7 +22379,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -22333,7 +22408,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -22362,7 +22437,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -22391,7 +22466,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -22420,7 +22495,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -22449,7 +22524,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -22478,7 +22553,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -22507,7 +22582,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -22536,7 +22611,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -22565,7 +22640,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -22594,7 +22669,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -22623,7 +22698,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -22652,7 +22727,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -22681,7 +22756,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -22710,7 +22785,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -22739,7 +22814,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -22768,7 +22843,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -22797,7 +22872,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -22826,7 +22901,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -22855,7 +22930,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -22884,7 +22959,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -22913,7 +22988,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -22942,7 +23017,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -22954,22 +23029,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="207" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23003,32 +23078,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.6328125" customWidth="1"/>
-    <col min="28" max="28" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" customWidth="1"/>
+    <col min="3" max="3" width="17.484375" customWidth="1"/>
+    <col min="4" max="4" width="13.71875" customWidth="1"/>
+    <col min="5" max="5" width="34.70703125" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.546875" customWidth="1"/>
+    <col min="9" max="9" width="19.234375" customWidth="1"/>
+    <col min="10" max="10" width="11.56640625" customWidth="1"/>
+    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.484375" customWidth="1"/>
+    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.62109375" customWidth="1"/>
+    <col min="28" max="28" width="17.75390625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23096,7 +23171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -23134,7 +23209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -23166,7 +23241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23198,7 +23273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -23230,7 +23305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -23262,7 +23337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -23294,7 +23369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23323,7 +23398,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -23352,7 +23427,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -23381,7 +23456,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -23410,7 +23485,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -23439,7 +23514,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -23468,7 +23543,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -23497,7 +23572,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -23526,7 +23601,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -23555,7 +23630,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23584,7 +23659,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23613,7 +23688,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23642,7 +23717,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -23671,7 +23746,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -23700,7 +23775,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -23729,7 +23804,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -23758,7 +23833,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -23787,7 +23862,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -23816,7 +23891,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -23845,7 +23920,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -23874,7 +23949,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -23903,7 +23978,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -23932,7 +24007,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -23961,7 +24036,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -23990,7 +24065,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -24019,7 +24094,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -24048,7 +24123,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -24077,7 +24152,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -24106,7 +24181,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -24135,7 +24210,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24164,7 +24239,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24193,7 +24268,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -24222,7 +24297,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -24251,7 +24326,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -24263,22 +24338,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="164" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2266" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096735D6-71CE-2346-BBD0-9F26B8494D64}"/>
+  <xr:revisionPtr revIDLastSave="2300" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD19F65C-365D-7145-B0AB-B559CDA82780}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="592">
   <si>
     <t>FECHA</t>
   </si>
@@ -1796,6 +1796,33 @@
   </si>
   <si>
     <t xml:space="preserve">cambio de esquinero inferior para puerta de vidrio con Omar </t>
+  </si>
+  <si>
+    <t>CRA 54A # 61 - 84</t>
+  </si>
+  <si>
+    <t>revisión de 3 motores de cadena merik</t>
+  </si>
+  <si>
+    <t>CRA 54A # 61 - 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuste de control remoto para motor Nice de cremallera </t>
+  </si>
+  <si>
+    <t>CRA 12B # 10 23 SUR</t>
+  </si>
+  <si>
+    <t>EDIFICIO LUMBI 12 - Marcela Portillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisión de bisagras puerta seccionada levadiza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k hizo transferencia desde nequi al nequi de jg </t>
+  </si>
+  <si>
+    <t>jk pago desde nequi al nequi de jg</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +2012,16 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -2020,9 +2053,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
@@ -3304,7 +3334,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -3312,7 +3348,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -3320,7 +3362,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3328,10 +3376,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -3342,124 +3386,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3493,22 +3442,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4458,7 +4485,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4481,38 +4508,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="214" totalsRowDxfId="213" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="212" totalsRowDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="205"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="204" totalsRowDxfId="203">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="219"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="218"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="217"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="216"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="211"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="209"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="206"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="205" totalsRowDxfId="204">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="202" totalsRowDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="200" totalsRowDxfId="199">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="201" totalsRowDxfId="200">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="198" totalsRowDxfId="197">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="199" totalsRowDxfId="198">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="196" totalsRowDxfId="195"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="192"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4535,38 +4562,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="179"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="177"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="174"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="173" totalsRowDxfId="172">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="184" totalsRowDxfId="183" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="180"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="178"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="175"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="169" totalsRowDxfId="168">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="170" totalsRowDxfId="169">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="167" totalsRowDxfId="166">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="168" totalsRowDxfId="167">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="161"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="166" totalsRowDxfId="165"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="164" totalsRowDxfId="163"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4589,31 +4616,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="147"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="146"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="130"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4913,38 +4940,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="304"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="303" totalsRowDxfId="302"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="301" totalsRowDxfId="300" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="289"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="288" totalsRowDxfId="287">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="309" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="308" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="307"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="306" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="305" totalsRowDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="304" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="303" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="302" totalsRowDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="301" totalsRowDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="300" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="299"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="298" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="297" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="296" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="282" totalsRowDxfId="281">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="295" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="294" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="293" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="274" dataDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="291" dataDxfId="290">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4967,38 +4994,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="272" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="271" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="270" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="269" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="268" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="267" totalsRowDxfId="10" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="266" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="265"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="264" totalsRowDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="263"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="262" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="261"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="260" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="289" totalsRowDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="287" totalsRowDxfId="286"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="285" totalsRowDxfId="284"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="283" totalsRowDxfId="282"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="281" totalsRowDxfId="280"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="279" totalsRowDxfId="278" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="277" totalsRowDxfId="276"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="275"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="272"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="269"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="268" totalsRowDxfId="267">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="259" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="258" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="264" totalsRowDxfId="263">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="257" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="262" totalsRowDxfId="261">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="256" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="255" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="253" dataDxfId="252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="254" dataDxfId="253">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5021,31 +5048,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="249"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="248"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="247"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="246"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="243" totalsRowDxfId="242"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="241"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="240"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="239"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="236"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="235" totalsRowDxfId="234">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="250"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="248"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="247"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="246" totalsRowDxfId="245" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="242"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="241"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="240"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="237"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="236" totalsRowDxfId="235">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="233" totalsRowDxfId="232"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="231" totalsRowDxfId="230">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="232" totalsRowDxfId="231">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="229" totalsRowDxfId="228">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="223"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="224"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7073,22 +7100,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8382,22 +8409,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9691,22 +9718,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11000,22 +11027,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12642,42 +12669,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14471,22 +14498,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="111" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16136,42 +16163,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17818,122 +17845,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="93" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19766,22 +19793,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19811,8 +19838,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20852,34 +20879,42 @@
         <v>528</v>
       </c>
       <c r="F20" s="7">
-        <v>120000</v>
+        <v>114041</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="14"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="17">
+        <v>22800</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>114041</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="1"/>
+        <v>57020.5</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>79820.5</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R20" s="2">
+        <v>45890</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -20954,7 +20989,9 @@
       <c r="E22" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17">
+        <v>427163</v>
+      </c>
       <c r="H22" s="14"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -20964,24 +21001,28 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>427163</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106790.75</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>213581.5</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="R22" s="2">
+        <v>45875</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -21515,27 +21556,27 @@
       <c r="I41" s="18"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla145678[[NOTAS ]])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21565,8 +21606,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22264,69 +22305,107 @@
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
+    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="N16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>589</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
@@ -23029,22 +23108,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24338,22 +24417,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2300" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD19F65C-365D-7145-B0AB-B559CDA82780}"/>
+  <xr:revisionPtr revIDLastSave="2320" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1B5873-8715-B44C-8674-51D0DDB8FE2D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="600">
   <si>
     <t>FECHA</t>
   </si>
@@ -1823,6 +1823,24 @@
   </si>
   <si>
     <t>jk pago desde nequi al nequi de jg</t>
+  </si>
+  <si>
+    <t>SEGURIDAD FENIX - Braheem Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garantía de motor acces Matic instalado de jk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk paga $ 40.000 por arreglo que hizo jg el pago se toma del 50% de la CRA 12B # 10 - 23 sur  la visita de la  no se le cobra al cliente el poago lo asume jk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 7 # 53 - 35 </t>
+  </si>
+  <si>
+    <t>EDIFICIO EL DORAL - Leonor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisión para instalar unidad de controles </t>
   </si>
 </sst>
 </file>
@@ -2012,16 +2030,10 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -2053,6 +2065,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
@@ -3334,13 +3349,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -3348,6 +3357,86 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3392,23 +3481,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3442,6 +3538,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3454,88 +3553,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4485,7 +4503,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4508,38 +4526,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="219"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="218"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="217"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="216"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="211"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="210"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="209"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="208" totalsRowDxfId="207"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="206"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="205" totalsRowDxfId="204">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="214" totalsRowDxfId="213" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="209"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="205"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="204" totalsRowDxfId="203">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="201" totalsRowDxfId="200">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="200" totalsRowDxfId="199">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="199" totalsRowDxfId="198">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="198" totalsRowDxfId="197">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="193"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4562,38 +4580,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="184" totalsRowDxfId="183" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="182" totalsRowDxfId="181"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="180"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="178"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="175"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="179"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="178"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="177"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="174"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="173" totalsRowDxfId="172">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="169" totalsRowDxfId="168">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="168" totalsRowDxfId="167">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="167" totalsRowDxfId="166">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="162"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4616,31 +4634,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="155"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="154"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="144"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="153"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="147"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="146"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="140" totalsRowDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="131"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4940,38 +4958,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="309" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="308" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="307"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="306" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="305" totalsRowDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="304" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="303" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="302" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="301" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="300" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="299"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="298" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="304"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="303" totalsRowDxfId="302"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="301" totalsRowDxfId="300" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="299" totalsRowDxfId="298"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="293" totalsRowDxfId="292"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="291" totalsRowDxfId="290"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="289"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="288" totalsRowDxfId="287">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="297" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="296" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="284" totalsRowDxfId="283">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="295" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="282" totalsRowDxfId="281">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="294" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="293" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="291" dataDxfId="290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="274" dataDxfId="273">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4994,38 +5012,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="285" totalsRowDxfId="284"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="283" totalsRowDxfId="282"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="281" totalsRowDxfId="280"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="279" totalsRowDxfId="278" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="277" totalsRowDxfId="276"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="275"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="274" totalsRowDxfId="273"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="272"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="269"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="268" totalsRowDxfId="267">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="272" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="271" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="270" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="269" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="268" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="267" totalsRowDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="266" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="265"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="264" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="263"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="262" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="261"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="260" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="264" totalsRowDxfId="263">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="259" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="258" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="262" totalsRowDxfId="261">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="257" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="256" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="255" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="254" dataDxfId="253">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="253" dataDxfId="252">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5048,31 +5066,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="252" totalsRowDxfId="251"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="250"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="249"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="248"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="247"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="246" totalsRowDxfId="245" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="242"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="241"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="240"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="237"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="236" totalsRowDxfId="235">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="243" totalsRowDxfId="242"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="241"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="240"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="239"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="236"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="235" totalsRowDxfId="234">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="232" totalsRowDxfId="231">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="233" totalsRowDxfId="232"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="231" totalsRowDxfId="230">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="229" totalsRowDxfId="228">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="228" totalsRowDxfId="227"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="226" totalsRowDxfId="225"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="224"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7100,22 +7118,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="130" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8409,22 +8427,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9718,22 +9736,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11027,22 +11045,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12669,42 +12687,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="118" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14498,22 +14516,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="112" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16163,42 +16181,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="106" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17845,122 +17863,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="94" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="88" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="82" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="76" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="70" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="64" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19793,22 +19811,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19838,7 +19856,7 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -21561,22 +21579,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21606,8 +21624,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22406,64 +22424,98 @@
       <c r="E17" s="14" t="s">
         <v>589</v>
       </c>
+      <c r="F17" s="7">
+        <v>80000</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="2"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45890</v>
+      </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F18" s="7">
+        <v>80000</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="S18" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>597</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6"/>
@@ -22483,7 +22535,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="14"/>
     </row>
@@ -23103,27 +23157,27 @@
       <c r="F41" s="13"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla1456789[[NOTAS ]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="46" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24417,22 +24471,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498b3c4373867/Documentos/DOCUMENTOS_EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498B3C4373867/Documentos/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2320" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1B5873-8715-B44C-8674-51D0DDB8FE2D}"/>
+  <xr:revisionPtr revIDLastSave="2330" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CB547F3-E97C-4868-906E-A1D7C05AF0AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
@@ -26,28 +26,20 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="602">
   <si>
     <t>FECHA</t>
   </si>
@@ -1841,6 +1833,18 @@
   </si>
   <si>
     <t xml:space="preserve">revisión para instalar unidad de controles </t>
+  </si>
+  <si>
+    <t>CALLE 95 # 13 - 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRATISTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">garantia de motor de piso bft instalado por daño de orina de perro </t>
+  </si>
+  <si>
+    <t>jk asumio el pago de la garantia y la hizo desde nequi al nequi de jg</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1852,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -1892,8 +1896,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2071,804 +2075,6 @@
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2989,6 +2195,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3109,6 +2357,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3229,6 +2519,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3349,6 +2681,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3421,6 +2795,48 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3566,6 +2982,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3709,6 +3167,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3851,6 +3351,258 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3996,6 +3748,90 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4149,6 +3985,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4298,6 +4176,90 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4435,6 +4397,48 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4449,7 +4453,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="536" dataDxfId="535">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="530" dataDxfId="529">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4472,38 +4476,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="534" totalsRowDxfId="533"/>
-    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="532"/>
-    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="529" totalsRowDxfId="528"/>
-    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="527" totalsRowDxfId="526"/>
-    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="521"/>
-    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="520" totalsRowDxfId="519"/>
-    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="518" totalsRowDxfId="517"/>
-    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="516" totalsRowDxfId="515"/>
-    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="514"/>
-    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="513" totalsRowDxfId="512">
+    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="526"/>
+    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="523" totalsRowDxfId="522"/>
+    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="521" totalsRowDxfId="520"/>
+    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="519" totalsRowDxfId="518"/>
+    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="517" totalsRowDxfId="516"/>
+    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="515"/>
+    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="508"/>
+    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="507" totalsRowDxfId="506">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="509" totalsRowDxfId="508">
+    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="503" totalsRowDxfId="502">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="507" totalsRowDxfId="506">
+    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="501" totalsRowDxfId="500">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="501"/>
+    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="495"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4526,38 +4530,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="214" totalsRowDxfId="213" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="212" totalsRowDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="209"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="208"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="205"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="204" totalsRowDxfId="203">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="106"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="103"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="202" totalsRowDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="200" totalsRowDxfId="199">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="198" totalsRowDxfId="197">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="196" totalsRowDxfId="195"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="192"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4580,38 +4584,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="179"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="177"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="174"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="173" totalsRowDxfId="172">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="169" totalsRowDxfId="168">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="167" totalsRowDxfId="166">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="161"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4634,38 +4638,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="147"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="146"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="130"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="500" dataDxfId="499">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="482" dataDxfId="481">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4688,38 +4692,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="488" totalsRowDxfId="487" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="476"/>
-    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="475" totalsRowDxfId="474">
+    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="480" totalsRowDxfId="479"/>
+    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="478" totalsRowDxfId="477"/>
+    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="470" totalsRowDxfId="469" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="458"/>
+    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="457" totalsRowDxfId="456">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="471" totalsRowDxfId="470">
+    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="455" totalsRowDxfId="454"/>
+    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="453" totalsRowDxfId="452">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="469" totalsRowDxfId="468">
+    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="451" totalsRowDxfId="450">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
+    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="449" totalsRowDxfId="448"/>
+    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="447" totalsRowDxfId="446"/>
+    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="445" totalsRowDxfId="444"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="461" dataDxfId="460">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="437" dataDxfId="436">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4742,38 +4746,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="459" totalsRowDxfId="458"/>
-    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="457"/>
-    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="454"/>
-    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="453" totalsRowDxfId="452"/>
-    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="451" totalsRowDxfId="450" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="449" totalsRowDxfId="448"/>
-    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="447" totalsRowDxfId="446"/>
-    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="445" totalsRowDxfId="444" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="443"/>
-    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="440"/>
-    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="439" totalsRowDxfId="438">
+    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="435" totalsRowDxfId="434"/>
+    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="433"/>
+    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="430"/>
+    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="429" totalsRowDxfId="428"/>
+    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="427" totalsRowDxfId="426" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="425" totalsRowDxfId="424"/>
+    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="423" totalsRowDxfId="422"/>
+    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="421" totalsRowDxfId="420" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="419"/>
+    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="416"/>
+    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="415" totalsRowDxfId="414">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="437" totalsRowDxfId="436"/>
-    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="435" totalsRowDxfId="434">
+    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="413" totalsRowDxfId="412"/>
+    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="411" totalsRowDxfId="410">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="433" totalsRowDxfId="432">
+    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="409" totalsRowDxfId="408">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="431" totalsRowDxfId="430"/>
-    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
+    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="407" totalsRowDxfId="406"/>
+    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="405" totalsRowDxfId="404"/>
+    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="425" dataDxfId="424">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="389" dataDxfId="388">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4796,38 +4800,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="419" totalsRowDxfId="418"/>
-    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="417" totalsRowDxfId="416"/>
-    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="415" totalsRowDxfId="414"/>
-    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="413" totalsRowDxfId="412" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="409"/>
-    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="408" totalsRowDxfId="407"/>
-    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="404" totalsRowDxfId="403"/>
-    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="402"/>
-    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="401" totalsRowDxfId="400">
+    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="377" totalsRowDxfId="376" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="373"/>
+    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="372" totalsRowDxfId="371"/>
+    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="370" totalsRowDxfId="369"/>
+    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="368" totalsRowDxfId="367"/>
+    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="366"/>
+    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="365" totalsRowDxfId="364">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="397" totalsRowDxfId="396">
+    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="361" totalsRowDxfId="360">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="395" totalsRowDxfId="394">
+    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="359" totalsRowDxfId="358">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="393" totalsRowDxfId="392"/>
-    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="391" totalsRowDxfId="390"/>
-    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
+    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="387" dataDxfId="386">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="315" dataDxfId="314">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4850,38 +4854,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="379"/>
-    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="378" totalsRowDxfId="377"/>
-    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="376" totalsRowDxfId="375" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="374" totalsRowDxfId="373"/>
-    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="372"/>
-    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="365"/>
-    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="364" totalsRowDxfId="363">
+    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="313" totalsRowDxfId="312"/>
+    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="311" totalsRowDxfId="310"/>
+    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="309" totalsRowDxfId="308"/>
+    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="307"/>
+    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="304" totalsRowDxfId="303" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="300"/>
+    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="299" totalsRowDxfId="298"/>
+    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="297" totalsRowDxfId="296"/>
+    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="295" totalsRowDxfId="294"/>
+    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="293"/>
+    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="292" totalsRowDxfId="291">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="360" totalsRowDxfId="359">
+    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="288" totalsRowDxfId="287">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="358" totalsRowDxfId="357">
+    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="286" totalsRowDxfId="285">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="350" dataDxfId="349">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="272" dataDxfId="271">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4904,38 +4908,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="342"/>
-    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="339" totalsRowDxfId="338" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="327"/>
-    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="326" totalsRowDxfId="325">
+    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="264"/>
+    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="261" totalsRowDxfId="260" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="253" totalsRowDxfId="252"/>
+    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="249"/>
+    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="248" totalsRowDxfId="247">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="322" totalsRowDxfId="321">
+    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="244" totalsRowDxfId="243">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="320" totalsRowDxfId="319">
+    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="242" totalsRowDxfId="241">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="312" dataDxfId="311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="228" dataDxfId="227">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4958,38 +4962,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="304"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="303" totalsRowDxfId="302"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="301" totalsRowDxfId="300" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="289"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="288" totalsRowDxfId="287">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="220"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="219" totalsRowDxfId="218"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="217" totalsRowDxfId="216" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="205"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="204" totalsRowDxfId="203">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="284" totalsRowDxfId="283">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="200" totalsRowDxfId="199">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="282" totalsRowDxfId="281">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="198" totalsRowDxfId="197">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="192" totalsRowDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="274" dataDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="184" dataDxfId="183">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5012,38 +5016,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="272" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="271" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="270" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="269" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="268" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="267" totalsRowDxfId="10" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="266" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="265"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="264" totalsRowDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="263"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="262" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="261"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="260" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="182" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="181" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="180" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="179" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="178" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="177" totalsRowDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="176" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="174" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="173"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="172" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="171"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="170" totalsRowDxfId="6">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="259" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="258" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="169" totalsRowDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="168" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="257" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="167" totalsRowDxfId="3">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="256" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="255" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="166" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="165" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="253" dataDxfId="252">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5066,40 +5070,40 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="249"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="248"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="247"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="246"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="243" totalsRowDxfId="242"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="241"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="240"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="239"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="236"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="235" totalsRowDxfId="234">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="143"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="140"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="233" totalsRowDxfId="232"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="231" totalsRowDxfId="230">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="229" totalsRowDxfId="228">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="223"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5137,7 +5141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5243,7 +5247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5385,7 +5389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5402,33 +5406,33 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.4765625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34.03125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0859375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.52734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.45703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.53125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.14453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.390625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.76171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.1796875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13.5859375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.86328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.484375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.390625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.1953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.24609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>45659</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>45659</v>
       </c>
@@ -5612,7 +5616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>45661</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>45664</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>45665</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45665</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>45666</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>45667</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>45677</v>
       </c>
@@ -5976,7 +5980,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>45678</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>45679</v>
       </c>
@@ -6068,7 +6072,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>45679</v>
       </c>
@@ -6116,7 +6120,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>45679</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>45680</v>
       </c>
@@ -6213,7 +6217,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>45680</v>
       </c>
@@ -6258,7 +6262,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>45681</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>45681</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>45684</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>45685</v>
       </c>
@@ -6458,7 +6462,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>45685</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>45687</v>
       </c>
@@ -6540,7 +6544,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>45687</v>
       </c>
@@ -6581,7 +6585,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>45687</v>
       </c>
@@ -6626,7 +6630,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>45688</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="1"/>
       <c r="C26" s="14"/>
@@ -6700,7 +6704,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14"/>
@@ -6729,7 +6733,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="1"/>
       <c r="C28" s="14"/>
@@ -6758,7 +6762,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
       <c r="B29" s="1"/>
       <c r="C29" s="14"/>
@@ -6787,7 +6791,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -6816,7 +6820,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -6845,7 +6849,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -6874,7 +6878,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -6903,7 +6907,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -6932,7 +6936,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -6961,7 +6965,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -6990,7 +6994,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -7019,7 +7023,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -7048,7 +7052,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -7077,7 +7081,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -7106,7 +7110,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -7118,22 +7122,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7167,32 +7171,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7298,7 +7302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7330,7 +7334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7362,7 +7366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7394,7 +7398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7426,7 +7430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7458,7 +7462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7487,7 +7491,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7516,7 +7520,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7545,7 +7549,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7574,7 +7578,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7603,7 +7607,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7632,7 +7636,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7661,7 +7665,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7690,7 +7694,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7719,7 +7723,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7748,7 +7752,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7777,7 +7781,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7806,7 +7810,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7835,7 +7839,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7864,7 +7868,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7893,7 +7897,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7922,7 +7926,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7951,7 +7955,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7980,7 +7984,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8009,7 +8013,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8038,7 +8042,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8067,7 +8071,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8096,7 +8100,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8125,7 +8129,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8154,7 +8158,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8183,7 +8187,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8212,7 +8216,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8241,7 +8245,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8270,7 +8274,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8299,7 +8303,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8328,7 +8332,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8357,7 +8361,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8386,7 +8390,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8415,7 +8419,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -8427,22 +8431,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8476,32 +8480,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8607,7 +8611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8639,7 +8643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8671,7 +8675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8703,7 +8707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8735,7 +8739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8767,7 +8771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8796,7 +8800,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8825,7 +8829,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8854,7 +8858,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8883,7 +8887,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8912,7 +8916,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8941,7 +8945,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8970,7 +8974,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8999,7 +9003,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -9028,7 +9032,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9057,7 +9061,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9086,7 +9090,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9115,7 +9119,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9144,7 +9148,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9173,7 +9177,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9202,7 +9206,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9231,7 +9235,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9260,7 +9264,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9289,7 +9293,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9318,7 +9322,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9347,7 +9351,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9376,7 +9380,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9405,7 +9409,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -9434,7 +9438,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -9463,7 +9467,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -9492,7 +9496,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9521,7 +9525,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9550,7 +9554,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -9579,7 +9583,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9608,7 +9612,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -9637,7 +9641,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9666,7 +9670,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9695,7 +9699,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9724,7 +9728,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -9736,22 +9740,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9785,32 +9789,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9916,7 +9920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9948,7 +9952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9980,7 +9984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10012,7 +10016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10044,7 +10048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -10076,7 +10080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10105,7 +10109,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10134,7 +10138,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10163,7 +10167,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -10192,7 +10196,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10221,7 +10225,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10250,7 +10254,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10279,7 +10283,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10308,7 +10312,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10337,7 +10341,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10366,7 +10370,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10395,7 +10399,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10424,7 +10428,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10453,7 +10457,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10482,7 +10486,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10511,7 +10515,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10540,7 +10544,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10569,7 +10573,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10598,7 +10602,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10627,7 +10631,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10656,7 +10660,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10685,7 +10689,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10714,7 +10718,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10743,7 +10747,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10772,7 +10776,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10801,7 +10805,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10830,7 +10834,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10859,7 +10863,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -10888,7 +10892,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10917,7 +10921,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10946,7 +10950,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10975,7 +10979,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11004,7 +11008,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11033,7 +11037,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -11045,22 +11049,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11094,32 +11098,32 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.53515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.5390625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.1015625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="45.19921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -11187,7 +11191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45689</v>
       </c>
@@ -11247,7 +11251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45692</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45692</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45692</v>
       </c>
@@ -11393,7 +11397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45692</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45693</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45695</v>
       </c>
@@ -11552,7 +11556,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45705</v>
       </c>
@@ -11604,7 +11608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45705</v>
       </c>
@@ -11659,7 +11663,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45706</v>
       </c>
@@ -11704,7 +11708,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45706</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45707</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45709</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45713</v>
       </c>
@@ -11912,7 +11916,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45714</v>
       </c>
@@ -11963,7 +11967,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>45715</v>
       </c>
@@ -12012,7 +12016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>45715</v>
       </c>
@@ -12049,7 +12053,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -12075,7 +12079,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12104,7 +12108,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12124,7 +12128,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12153,7 +12157,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -12182,7 +12186,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -12211,7 +12215,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -12240,7 +12244,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -12269,7 +12273,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -12298,7 +12302,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -12327,7 +12331,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -12356,7 +12360,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -12385,7 +12389,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -12414,7 +12418,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -12443,7 +12447,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12472,7 +12476,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -12501,7 +12505,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12530,7 +12534,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -12559,7 +12563,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -12588,7 +12592,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -12617,7 +12621,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -12646,7 +12650,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -12675,7 +12679,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -12687,42 +12691,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12756,32 +12760,32 @@
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.53515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.96484375" customWidth="1"/>
-    <col min="5" max="5" width="37.53125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12849,7 +12853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45719</v>
       </c>
@@ -12907,7 +12911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45720</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45720</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>45723</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>45726</v>
       </c>
@@ -13116,7 +13120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45726</v>
       </c>
@@ -13167,7 +13171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>45726</v>
       </c>
@@ -13206,7 +13210,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>45727</v>
       </c>
@@ -13255,7 +13259,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>45728</v>
       </c>
@@ -13306,7 +13310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>45728</v>
       </c>
@@ -13345,7 +13349,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>45733</v>
       </c>
@@ -13390,7 +13394,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>45733</v>
       </c>
@@ -13439,7 +13443,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>45734</v>
       </c>
@@ -13484,7 +13488,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>45734</v>
       </c>
@@ -13525,7 +13529,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>45734</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>45735</v>
       </c>
@@ -13618,7 +13622,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>45735</v>
       </c>
@@ -13666,7 +13670,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>45735</v>
       </c>
@@ -13714,7 +13718,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>45735</v>
       </c>
@@ -13761,7 +13765,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>45737</v>
       </c>
@@ -13816,7 +13820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>45741</v>
       </c>
@@ -13861,7 +13865,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>45741</v>
       </c>
@@ -13906,7 +13910,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>45742</v>
       </c>
@@ -13949,7 +13953,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>45743</v>
       </c>
@@ -14001,7 +14005,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>45743</v>
       </c>
@@ -14046,7 +14050,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>45745</v>
       </c>
@@ -14091,7 +14095,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>45745</v>
       </c>
@@ -14134,7 +14138,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>45747</v>
       </c>
@@ -14183,7 +14187,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -14212,7 +14216,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -14241,7 +14245,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -14270,7 +14274,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -14299,7 +14303,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -14328,7 +14332,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -14357,7 +14361,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -14386,7 +14390,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -14415,7 +14419,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -14444,7 +14448,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -14473,7 +14477,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -14502,7 +14506,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -14516,22 +14520,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="111" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14565,32 +14569,32 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.19140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="23.5390625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="46.2734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45749</v>
       </c>
@@ -14722,7 +14726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45750</v>
       </c>
@@ -14776,7 +14780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45750</v>
       </c>
@@ -14834,7 +14838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45761</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45762</v>
       </c>
@@ -14943,7 +14947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45767</v>
       </c>
@@ -14997,7 +15001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45768</v>
       </c>
@@ -15040,7 +15044,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45769</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45770</v>
       </c>
@@ -15144,7 +15148,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45770</v>
       </c>
@@ -15195,7 +15199,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45771</v>
       </c>
@@ -15236,7 +15240,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45771</v>
       </c>
@@ -15288,7 +15292,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45772</v>
       </c>
@@ -15337,7 +15341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45775</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45775</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>45777</v>
       </c>
@@ -15502,7 +15506,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -15531,7 +15535,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="30"/>
@@ -15560,7 +15564,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -15589,7 +15593,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -15618,7 +15622,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -15647,7 +15651,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -15676,7 +15680,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -15705,7 +15709,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -15734,7 +15738,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -15763,7 +15767,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -15792,7 +15796,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -15821,7 +15825,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -15850,7 +15854,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -15879,7 +15883,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -15908,7 +15912,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -15937,7 +15941,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -15966,7 +15970,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -15995,7 +15999,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -16024,7 +16028,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -16053,7 +16057,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -16082,7 +16086,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -16111,7 +16115,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -16140,7 +16144,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -16169,7 +16173,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -16181,42 +16185,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16250,32 +16254,32 @@
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5234375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5625" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -16343,7 +16347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45779</v>
       </c>
@@ -16408,7 +16412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45782</v>
       </c>
@@ -16463,7 +16467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45782</v>
       </c>
@@ -16522,7 +16526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45783</v>
       </c>
@@ -16577,7 +16581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45785</v>
       </c>
@@ -16632,7 +16636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45789</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45790</v>
       </c>
@@ -16749,7 +16753,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45791</v>
       </c>
@@ -16797,7 +16801,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45791</v>
       </c>
@@ -16853,7 +16857,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45798</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45799</v>
       </c>
@@ -16961,7 +16965,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45803</v>
       </c>
@@ -17013,7 +17017,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45804</v>
       </c>
@@ -17055,7 +17059,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45804</v>
       </c>
@@ -17107,7 +17111,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45807</v>
       </c>
@@ -17153,7 +17157,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="1"/>
@@ -17182,7 +17186,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="1"/>
@@ -17211,7 +17215,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="1"/>
@@ -17240,7 +17244,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="1"/>
@@ -17269,7 +17273,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="1"/>
@@ -17298,7 +17302,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="1"/>
@@ -17327,7 +17331,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="1"/>
@@ -17356,7 +17360,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="1"/>
@@ -17385,7 +17389,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="1"/>
@@ -17414,7 +17418,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="1"/>
@@ -17443,7 +17447,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="1"/>
@@ -17472,7 +17476,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="1"/>
@@ -17501,7 +17505,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="1"/>
@@ -17530,7 +17534,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="1"/>
@@ -17559,7 +17563,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="1"/>
@@ -17588,7 +17592,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="1"/>
@@ -17617,7 +17621,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="1"/>
@@ -17646,7 +17650,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="1"/>
@@ -17675,7 +17679,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="1"/>
@@ -17704,7 +17708,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="1"/>
@@ -17733,7 +17737,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="1"/>
@@ -17762,7 +17766,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="1"/>
@@ -17791,7 +17795,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="1"/>
@@ -17820,7 +17824,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="1"/>
@@ -17849,7 +17853,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>119</v>
       </c>
@@ -17863,122 +17867,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="93" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18012,32 +18016,32 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18105,7 +18109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45811</v>
       </c>
@@ -18165,7 +18169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45815</v>
       </c>
@@ -18270,7 +18274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45818</v>
       </c>
@@ -18325,7 +18329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45818</v>
       </c>
@@ -18381,7 +18385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45819</v>
       </c>
@@ -18435,7 +18439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45820</v>
       </c>
@@ -18489,7 +18493,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45820</v>
       </c>
@@ -18538,7 +18542,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45824</v>
       </c>
@@ -18595,7 +18599,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="40">
         <v>45825</v>
       </c>
@@ -18638,7 +18642,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="40">
         <v>45826</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -18738,7 +18742,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45826</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -18840,7 +18844,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45827</v>
       </c>
@@ -18885,7 +18889,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45828</v>
       </c>
@@ -18936,7 +18940,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45828</v>
       </c>
@@ -18979,7 +18983,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45832</v>
       </c>
@@ -19030,7 +19034,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45832</v>
       </c>
@@ -19083,7 +19087,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45833</v>
       </c>
@@ -19138,7 +19142,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45834</v>
       </c>
@@ -19188,7 +19192,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45834</v>
       </c>
@@ -19243,7 +19247,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45835</v>
       </c>
@@ -19286,7 +19290,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45836</v>
       </c>
@@ -19337,7 +19341,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -19363,7 +19367,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -19392,7 +19396,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -19421,7 +19425,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -19450,7 +19454,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -19479,7 +19483,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -19508,7 +19512,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -19537,7 +19541,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -19566,7 +19570,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -19595,7 +19599,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -19624,7 +19628,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -19653,7 +19657,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -19682,7 +19686,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -19711,7 +19715,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -19740,7 +19744,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -19769,7 +19773,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -19798,7 +19802,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -19811,22 +19815,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19860,32 +19864,32 @@
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.45703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.17578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6953125" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19953,7 +19957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45840</v>
       </c>
@@ -20013,7 +20017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45841</v>
       </c>
@@ -20059,7 +20063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45841</v>
       </c>
@@ -20112,7 +20116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45842</v>
       </c>
@@ -20166,7 +20170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45846</v>
       </c>
@@ -20226,7 +20230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45848</v>
       </c>
@@ -20281,7 +20285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45849</v>
       </c>
@@ -20324,7 +20328,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45852</v>
       </c>
@@ -20381,7 +20385,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45852</v>
       </c>
@@ -20433,7 +20437,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45853</v>
       </c>
@@ -20488,7 +20492,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45854</v>
       </c>
@@ -20539,7 +20543,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45859</v>
       </c>
@@ -20590,7 +20594,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45859</v>
       </c>
@@ -20641,7 +20645,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45860</v>
       </c>
@@ -20686,7 +20690,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45862</v>
       </c>
@@ -20729,7 +20733,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45866</v>
       </c>
@@ -20781,7 +20785,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45866</v>
       </c>
@@ -20831,7 +20835,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45866</v>
       </c>
@@ -20882,7 +20886,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45866</v>
       </c>
@@ -20934,7 +20938,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45868</v>
       </c>
@@ -20991,7 +20995,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45869</v>
       </c>
@@ -21042,7 +21046,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -21071,7 +21075,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -21100,7 +21104,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -21129,7 +21133,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -21158,7 +21162,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -21187,7 +21191,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -21216,7 +21220,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -21245,7 +21249,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -21274,7 +21278,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -21303,7 +21307,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -21332,7 +21336,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -21361,7 +21365,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -21390,7 +21394,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -21419,7 +21423,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -21448,7 +21452,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -21477,7 +21481,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -21506,7 +21510,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -21535,7 +21539,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -21564,7 +21568,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -21579,22 +21583,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21624,36 +21628,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="N13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.98046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.90234375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="65.2421875" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="28" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="65.26953125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21721,7 +21725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45870</v>
       </c>
@@ -21776,7 +21780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45873</v>
       </c>
@@ -21825,7 +21829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45873</v>
       </c>
@@ -21872,7 +21876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45874</v>
       </c>
@@ -21925,7 +21929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45875</v>
       </c>
@@ -21977,7 +21981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45880</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45880</v>
       </c>
@@ -22066,7 +22070,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45881</v>
       </c>
@@ -22111,7 +22115,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45882</v>
       </c>
@@ -22154,7 +22158,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45882</v>
       </c>
@@ -22195,7 +22199,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45884</v>
       </c>
@@ -22236,7 +22240,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45884</v>
       </c>
@@ -22279,7 +22283,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45888</v>
       </c>
@@ -22322,7 +22326,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45888</v>
       </c>
@@ -22365,7 +22369,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45888</v>
       </c>
@@ -22408,7 +22412,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45890</v>
       </c>
@@ -22454,7 +22458,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45890</v>
       </c>
@@ -22500,7 +22504,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45891</v>
       </c>
@@ -22541,36 +22545,57 @@
       <c r="R19" s="2"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>598</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F20" s="7">
+        <v>80000</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="M20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>80000</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>40000</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="2">
+        <v>45894</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -22599,7 +22624,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -22628,7 +22653,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -22657,7 +22682,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -22686,7 +22711,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -22715,7 +22740,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -22744,7 +22769,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -22773,7 +22798,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -22802,7 +22827,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -22831,7 +22856,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -22860,7 +22885,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -22889,7 +22914,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -22918,7 +22943,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -22947,7 +22972,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -22976,7 +23001,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -23005,7 +23030,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -23034,7 +23059,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -23063,7 +23088,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -23092,7 +23117,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -23121,7 +23146,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -23150,34 +23175,34 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla1456789[[NOTAS ]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23211,32 +23236,32 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23304,7 +23329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -23342,7 +23367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -23374,7 +23399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23406,7 +23431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -23438,7 +23463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -23470,7 +23495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -23502,7 +23527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23531,7 +23556,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -23560,7 +23585,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -23589,7 +23614,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -23618,7 +23643,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -23647,7 +23672,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -23676,7 +23701,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -23705,7 +23730,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -23734,7 +23759,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -23763,7 +23788,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -23792,7 +23817,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -23821,7 +23846,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -23850,7 +23875,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -23879,7 +23904,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -23908,7 +23933,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -23937,7 +23962,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -23966,7 +23991,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -23995,7 +24020,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24024,7 +24049,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -24053,7 +24078,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -24082,7 +24107,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -24111,7 +24136,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -24140,7 +24165,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -24169,7 +24194,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -24198,7 +24223,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -24227,7 +24252,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -24256,7 +24281,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -24285,7 +24310,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -24314,7 +24339,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -24343,7 +24368,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24372,7 +24397,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24401,7 +24426,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -24430,7 +24455,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -24459,7 +24484,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -24471,22 +24496,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/temp/SERVICIOS 2025.xlsx
+++ b/backend/temp/SERVICIOS 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498B3C4373867/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2578" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA4F68-BB81-4FE5-AEDB-F6B483EC049E}"/>
+  <xr:revisionPtr revIDLastSave="2586" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F790C3A8-7746-9B46-9B0D-E3B224C3EDF2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
@@ -26,10 +26,21 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -39,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="674">
   <si>
     <t>FECHA</t>
   </si>
@@ -2052,6 +2063,15 @@
   </si>
   <si>
     <t>JG  hace transferencia de $185.600 para copletar el pago del servicio a ABRECAR el cliente ya le habia abonado $450.000 este pago incluye los $60.000 de la bateria y la caja que se tomaron de la oficina y los $40.000 de la visita inicial se hizo por transferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 23 SUR # 6 - 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamcar Carlos Díaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuste de puertas de vidrio corredizas entrada y chapa mantenimiento </t>
   </si>
 </sst>
 </file>
@@ -2217,40 +2237,75 @@
   </cellStyles>
   <dxfs count="546">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2273,16 +2328,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2609,7 +2723,10 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2664,19 +2781,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2704,136 +2832,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4744,7 +4764,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4767,38 +4787,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="107"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="87"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="91"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4821,38 +4841,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4875,31 +4895,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5307,31 +5327,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="145" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="144" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="142" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="141" totalsRowDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="140" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="139" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="138" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="137" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="136" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="135"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="134" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="125"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="133" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="132" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="131" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="130" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="129" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8668,22 +8688,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9977,22 +9997,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11286,22 +11306,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23639,8 +23659,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R10:R11"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24217,30 +24237,46 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="17"/>
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="17">
+        <v>180000</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>180000</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="1"/>
+        <v>90000</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="2"/>
